--- a/Задание 8/8_12_RES8Anova_Trashko_2023.xlsx
+++ b/Задание 8/8_12_RES8Anova_Trashko_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="24780" windowHeight="12465" tabRatio="730" activeTab="3"/>
+    <workbookView xWindow="-75" yWindow="-135" windowWidth="24375" windowHeight="12495" tabRatio="730" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="8_data12_ for R_" sheetId="5" r:id="rId1"/>
@@ -28,15 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="152">
-  <si>
-    <t>1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="183">
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>10</t>
@@ -461,12 +455,6 @@
     <t>Qt=Ct/Vt</t>
   </si>
   <si>
-    <t>Ст  = 273,6</t>
-  </si>
-  <si>
-    <t>Vт  = 7,0</t>
-  </si>
-  <si>
     <t>Analysis of Variance Table</t>
   </si>
   <si>
@@ -521,18 +509,9 @@
     <t>Модель двухфакторного анализа, так как влияние случайных факторов в ней сведено к минимуму</t>
   </si>
   <si>
-    <t>Динамику средних лучше отражает левый график.</t>
-  </si>
-  <si>
     <t>0.8900665</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>data:  Yield by Herbizide</t>
   </si>
   <si>
@@ -575,12 +554,6 @@
     <t>NPK120</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>ruskal-Wallis rank sum test</t>
   </si>
   <si>
@@ -609,6 +582,126 @@
   </si>
   <si>
     <t xml:space="preserve">P value adjustment method: BH </t>
+  </si>
+  <si>
+    <t>Ст  = Ca + Cb+Cw1</t>
+  </si>
+  <si>
+    <t>Vт  = Va + Vb +Vw1</t>
+  </si>
+  <si>
+    <t>Ст  = Ca + Cw2</t>
+  </si>
+  <si>
+    <t>Vт  = Va + Vw2</t>
+  </si>
+  <si>
+    <t>Ст  = Cb + Cw3</t>
+  </si>
+  <si>
+    <t>Vт  = Vb + Vw3</t>
+  </si>
+  <si>
+    <t>График средних</t>
+  </si>
+  <si>
+    <t>отличаются</t>
+  </si>
+  <si>
+    <t>равны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Yield groups</t>
+  </si>
+  <si>
+    <t>30  15.0      a</t>
+  </si>
+  <si>
+    <t>10  14.5      a</t>
+  </si>
+  <si>
+    <t>20  14.4      a</t>
+  </si>
+  <si>
+    <t>0   12.5      b</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>$Herbizide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      diff        lwr      upr     p adj</t>
+  </si>
+  <si>
+    <t>20-0   1.9  0.7161066 3.083893 0.0007199</t>
+  </si>
+  <si>
+    <t>10-0   2.0  0.8161066 3.183893 0.0003771</t>
+  </si>
+  <si>
+    <t>30-0   2.5  1.3161066 3.683893 0.0000140</t>
+  </si>
+  <si>
+    <t>10-20  0.1 -1.0838934 1.283893 0.9956884</t>
+  </si>
+  <si>
+    <t>30-20  0.6 -0.5838934 1.783893 0.5248450</t>
+  </si>
+  <si>
+    <t>30-10  0.5 -0.6838934 1.683893 0.6653954</t>
+  </si>
+  <si>
+    <t>Оба критерия обнаруживают одинаковое количество различий</t>
+  </si>
+  <si>
+    <t>Влияние фактора обнаруживается, но оно невелико. Так, применения гербицидов влияет на урожай картофеля, однако неважно какое именно количество применять. К применению рекомендуется применение дозы 10 г/га, так как это будет дешевле, а отклик будет таким же, как и при больших дозах</t>
+  </si>
+  <si>
+    <t>0.1399</t>
+  </si>
+  <si>
+    <t>Гербициды не влияют на урожайность картофеля</t>
+  </si>
+  <si>
+    <t>Отличаются: параметрический выявил влияние примененения гербицидов на урожайность картофеля, однако не выявил влияния дозу (средние по всем дозам равны), непараметрический - гербицид не влияет на отклик</t>
+  </si>
+  <si>
+    <t>ц/га (тех же, что и отклик)</t>
+  </si>
+  <si>
+    <t>Оба критерия обнаруживают одинаковое количество различий между средними</t>
+  </si>
+  <si>
+    <t>Удобрение в значительной степени влияет на урожайность картофеля. К применеению рекомендуется NPK90, т.к. NPK120 даёт урожайность выше, но статистически не отличимую от вышеназванной градации</t>
+  </si>
+  <si>
+    <t>Наибольшую прибавку всё так же дают удобрения NPK90 и NPK120</t>
+  </si>
+  <si>
+    <t>Результаты не отличаются</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Yield groups</t>
+  </si>
+  <si>
+    <t>120 16.625      a</t>
+  </si>
+  <si>
+    <t>90  16.250      a</t>
+  </si>
+  <si>
+    <t>60  14.375      b</t>
+  </si>
+  <si>
+    <t>30  12.750      c</t>
+  </si>
+  <si>
+    <t>0   10.500      d</t>
   </si>
 </sst>
 </file>
@@ -623,7 +716,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -782,20 +875,6 @@
       <i/>
       <sz val="10"/>
       <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -1081,7 +1160,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1213,12 +1292,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1321,12 +1394,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -1377,106 +1444,179 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1491,98 +1631,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1698,8 +1791,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>47489</xdr:rowOff>
     </xdr:to>
@@ -1758,6 +1851,44 @@
         <a:xfrm>
           <a:off x="5038725" y="2667001"/>
           <a:ext cx="3020077" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>22052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="12957002"/>
+          <a:ext cx="4352925" cy="2949747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1976,19 +2107,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>364672</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>122190</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495978</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>6804</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2001,8 +2132,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086350" y="3009900"/>
-          <a:ext cx="3724275" cy="4760865"/>
+          <a:off x="4868636" y="3888922"/>
+          <a:ext cx="5070699" cy="3179989"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2013,20 +2144,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106138</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>103218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>305478</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>530680</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>156483</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2039,46 +2170,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8943975" y="3895725"/>
-          <a:ext cx="5048928" cy="3152775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15919</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2962276" y="14478001"/>
-          <a:ext cx="2816268" cy="2895600"/>
+          <a:off x="5875567" y="14894182"/>
+          <a:ext cx="2261506" cy="2339265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2345,7 +2438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2368,455 +2461,455 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="118" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="132">
+      <c r="A2" s="116">
         <v>0</v>
       </c>
-      <c r="B2" s="133">
+      <c r="B2" s="117">
         <v>0</v>
       </c>
-      <c r="C2" s="134">
+      <c r="C2" s="118">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="132">
+      <c r="A3" s="116">
         <v>0</v>
       </c>
-      <c r="B3" s="133">
+      <c r="B3" s="117">
         <v>0</v>
       </c>
-      <c r="C3" s="134">
+      <c r="C3" s="118">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="132">
+      <c r="A4" s="116">
         <v>10</v>
       </c>
-      <c r="B4" s="133">
+      <c r="B4" s="117">
         <v>0</v>
       </c>
-      <c r="C4" s="134">
+      <c r="C4" s="118">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="132">
+      <c r="A5" s="116">
         <v>10</v>
       </c>
-      <c r="B5" s="133">
+      <c r="B5" s="117">
         <v>0</v>
       </c>
-      <c r="C5" s="134">
+      <c r="C5" s="118">
         <v>11</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="132">
+      <c r="A6" s="116">
         <v>20</v>
       </c>
-      <c r="B6" s="133">
+      <c r="B6" s="117">
         <v>0</v>
       </c>
-      <c r="C6" s="134">
+      <c r="C6" s="118">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="132">
+      <c r="A7" s="116">
         <v>20</v>
       </c>
-      <c r="B7" s="133">
+      <c r="B7" s="117">
         <v>0</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="118">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="132">
+      <c r="A8" s="116">
         <v>30</v>
       </c>
-      <c r="B8" s="133">
+      <c r="B8" s="117">
         <v>0</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="118">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="132">
+      <c r="A9" s="116">
         <v>30</v>
       </c>
-      <c r="B9" s="133">
+      <c r="B9" s="117">
         <v>0</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="118">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="132">
+      <c r="A10" s="116">
         <v>0</v>
       </c>
-      <c r="B10" s="135">
+      <c r="B10" s="119">
         <v>30</v>
       </c>
-      <c r="C10" s="134">
+      <c r="C10" s="118">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="132">
+      <c r="A11" s="116">
         <v>0</v>
       </c>
-      <c r="B11" s="135">
+      <c r="B11" s="119">
         <v>30</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="118">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="132">
+      <c r="A12" s="116">
         <v>10</v>
       </c>
-      <c r="B12" s="135">
+      <c r="B12" s="119">
         <v>30</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="118">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="132">
+      <c r="A13" s="116">
         <v>10</v>
       </c>
-      <c r="B13" s="135">
+      <c r="B13" s="119">
         <v>30</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="118">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="132">
+      <c r="A14" s="116">
         <v>20</v>
       </c>
-      <c r="B14" s="135">
+      <c r="B14" s="119">
         <v>30</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="118">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="132">
+      <c r="A15" s="116">
         <v>20</v>
       </c>
-      <c r="B15" s="135">
+      <c r="B15" s="119">
         <v>30</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="118">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="132">
+      <c r="A16" s="116">
         <v>30</v>
       </c>
-      <c r="B16" s="135">
+      <c r="B16" s="119">
         <v>30</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="118">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="132">
+      <c r="A17" s="116">
         <v>30</v>
       </c>
-      <c r="B17" s="135">
+      <c r="B17" s="119">
         <v>30</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="118">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="132">
+      <c r="A18" s="116">
         <v>0</v>
       </c>
-      <c r="B18" s="135">
+      <c r="B18" s="119">
         <v>60</v>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="118">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="132">
+      <c r="A19" s="116">
         <v>0</v>
       </c>
-      <c r="B19" s="135">
+      <c r="B19" s="119">
         <v>60</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="118">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="132">
+      <c r="A20" s="116">
         <v>10</v>
       </c>
-      <c r="B20" s="135">
+      <c r="B20" s="119">
         <v>60</v>
       </c>
-      <c r="C20" s="134">
+      <c r="C20" s="118">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="132">
+      <c r="A21" s="116">
         <v>10</v>
       </c>
-      <c r="B21" s="135">
+      <c r="B21" s="119">
         <v>60</v>
       </c>
-      <c r="C21" s="134">
+      <c r="C21" s="118">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="132">
+      <c r="A22" s="116">
         <v>20</v>
       </c>
-      <c r="B22" s="135">
+      <c r="B22" s="119">
         <v>60</v>
       </c>
-      <c r="C22" s="134">
+      <c r="C22" s="118">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="132">
+      <c r="A23" s="116">
         <v>20</v>
       </c>
-      <c r="B23" s="135">
+      <c r="B23" s="119">
         <v>60</v>
       </c>
-      <c r="C23" s="134">
+      <c r="C23" s="118">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="132">
+      <c r="A24" s="116">
         <v>30</v>
       </c>
-      <c r="B24" s="135">
+      <c r="B24" s="119">
         <v>60</v>
       </c>
-      <c r="C24" s="134">
+      <c r="C24" s="118">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="132">
+      <c r="A25" s="116">
         <v>30</v>
       </c>
-      <c r="B25" s="135">
+      <c r="B25" s="119">
         <v>60</v>
       </c>
-      <c r="C25" s="134">
+      <c r="C25" s="118">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="132">
+      <c r="A26" s="116">
         <v>0</v>
       </c>
-      <c r="B26" s="135">
+      <c r="B26" s="119">
         <v>90</v>
       </c>
-      <c r="C26" s="134">
+      <c r="C26" s="118">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="132">
+      <c r="A27" s="116">
         <v>0</v>
       </c>
-      <c r="B27" s="135">
+      <c r="B27" s="119">
         <v>90</v>
       </c>
-      <c r="C27" s="134">
+      <c r="C27" s="118">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="132">
+      <c r="A28" s="116">
         <v>10</v>
       </c>
-      <c r="B28" s="135">
+      <c r="B28" s="119">
         <v>90</v>
       </c>
-      <c r="C28" s="134">
+      <c r="C28" s="118">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="132">
+      <c r="A29" s="116">
         <v>10</v>
       </c>
-      <c r="B29" s="135">
+      <c r="B29" s="119">
         <v>90</v>
       </c>
-      <c r="C29" s="134">
+      <c r="C29" s="118">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="132">
+      <c r="A30" s="116">
         <v>20</v>
       </c>
-      <c r="B30" s="135">
+      <c r="B30" s="119">
         <v>90</v>
       </c>
-      <c r="C30" s="134">
+      <c r="C30" s="118">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="132">
+      <c r="A31" s="116">
         <v>20</v>
       </c>
-      <c r="B31" s="135">
+      <c r="B31" s="119">
         <v>90</v>
       </c>
-      <c r="C31" s="134">
+      <c r="C31" s="118">
         <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="132">
+      <c r="A32" s="116">
         <v>30</v>
       </c>
-      <c r="B32" s="135">
+      <c r="B32" s="119">
         <v>90</v>
       </c>
-      <c r="C32" s="134">
+      <c r="C32" s="118">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="132">
+      <c r="A33" s="116">
         <v>30</v>
       </c>
-      <c r="B33" s="135">
+      <c r="B33" s="119">
         <v>90</v>
       </c>
-      <c r="C33" s="134">
+      <c r="C33" s="118">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="132">
+      <c r="A34" s="116">
         <v>0</v>
       </c>
-      <c r="B34" s="135">
+      <c r="B34" s="119">
         <v>120</v>
       </c>
-      <c r="C34" s="134">
+      <c r="C34" s="118">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="132">
+      <c r="A35" s="116">
         <v>0</v>
       </c>
-      <c r="B35" s="135">
+      <c r="B35" s="119">
         <v>120</v>
       </c>
-      <c r="C35" s="134">
+      <c r="C35" s="118">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="132">
+      <c r="A36" s="116">
         <v>10</v>
       </c>
-      <c r="B36" s="135">
+      <c r="B36" s="119">
         <v>120</v>
       </c>
-      <c r="C36" s="134">
+      <c r="C36" s="118">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="132">
+      <c r="A37" s="116">
         <v>10</v>
       </c>
-      <c r="B37" s="135">
+      <c r="B37" s="119">
         <v>120</v>
       </c>
-      <c r="C37" s="134">
+      <c r="C37" s="118">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="132">
+      <c r="A38" s="116">
         <v>20</v>
       </c>
-      <c r="B38" s="135">
+      <c r="B38" s="119">
         <v>120</v>
       </c>
-      <c r="C38" s="134">
+      <c r="C38" s="118">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="132">
+      <c r="A39" s="116">
         <v>20</v>
       </c>
-      <c r="B39" s="135">
+      <c r="B39" s="119">
         <v>120</v>
       </c>
-      <c r="C39" s="134">
+      <c r="C39" s="118">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="132">
+      <c r="A40" s="116">
         <v>30</v>
       </c>
-      <c r="B40" s="135">
+      <c r="B40" s="119">
         <v>120</v>
       </c>
-      <c r="C40" s="134">
+      <c r="C40" s="118">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="136">
+      <c r="A41" s="120">
         <v>30</v>
       </c>
-      <c r="B41" s="135">
+      <c r="B41" s="119">
         <v>120</v>
       </c>
-      <c r="C41" s="137">
+      <c r="C41" s="121">
         <v>18</v>
       </c>
     </row>
@@ -2830,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2845,24 +2938,24 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="O2" s="71"/>
+      <c r="O2" s="65"/>
     </row>
     <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2870,162 +2963,162 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="O3" s="71"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+        <v>48</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="70"/>
+      <c r="J6" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="124" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="112">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D7" s="113">
+        <v>3</v>
+      </c>
+      <c r="E7" s="112">
+        <v>12.067</v>
+      </c>
+      <c r="F7" s="87">
+        <v>12.638999999999999</v>
+      </c>
+      <c r="G7" s="87">
+        <v>1.291E-5</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="P5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="75" t="s">
+      <c r="L7" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="175" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="128">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="D7" s="129">
-        <v>3</v>
-      </c>
-      <c r="E7" s="128">
-        <v>12.067</v>
-      </c>
-      <c r="F7" s="93">
-        <v>12.638999999999999</v>
-      </c>
-      <c r="G7" s="93">
-        <v>1.291E-5</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="64" t="s">
+      <c r="M7" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="123"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="85">
+        <v>206.85</v>
+      </c>
+      <c r="D8" s="86">
+        <v>4</v>
+      </c>
+      <c r="E8" s="85">
+        <v>51.712000000000003</v>
+      </c>
+      <c r="F8" s="87">
+        <v>54.167000000000002</v>
+      </c>
+      <c r="G8" s="87">
+        <v>8.4500000000000006E-14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="70"/>
+      <c r="J8" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" s="124" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="59" t="s">
         <v>46</v>
-      </c>
-      <c r="K7" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" s="174"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="91">
-        <v>206.85</v>
-      </c>
-      <c r="D8" s="92">
-        <v>4</v>
-      </c>
-      <c r="E8" s="91">
-        <v>51.712000000000003</v>
-      </c>
-      <c r="F8" s="93">
-        <v>54.167000000000002</v>
-      </c>
-      <c r="G8" s="93">
-        <v>8.4500000000000006E-14</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" s="175" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="65" t="s">
-        <v>48</v>
       </c>
       <c r="C9" s="17">
         <v>30.55</v>
@@ -3036,88 +3129,88 @@
       <c r="E9" s="17">
         <v>0.95499999999999996</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="68"/>
-      <c r="P9" s="175" t="s">
-        <v>106</v>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="62"/>
+      <c r="P9" s="124" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="87">
+      <c r="B10" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="81">
         <v>273.60000000000002</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="82">
         <v>39</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="81">
         <f>C10/D10</f>
         <v>7.0153846153846162</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="66" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="62"/>
+      <c r="P10" s="124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="E12" s="133" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="N10" s="68"/>
-      <c r="P10" s="175" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P11" s="175" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="147" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="148" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="149" t="s">
-        <v>66</v>
-      </c>
-      <c r="L12" s="151">
+      <c r="K12" s="130" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="131">
         <f>1-E9/E10</f>
         <v>0.8638706140350878</v>
       </c>
-      <c r="P12" s="175" t="s">
-        <v>109</v>
+      <c r="P12" s="124" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -3125,29 +3218,29 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="149"/>
-      <c r="L13" s="152"/>
-      <c r="P13" s="175" t="s">
-        <v>110</v>
+      <c r="J13" s="135"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="132"/>
+      <c r="P13" s="124" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="147" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="P14" s="177" t="s">
-        <v>111</v>
+      <c r="B14" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="P14" s="126" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -3155,102 +3248,102 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="B17" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="70"/>
+      <c r="J17" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="124" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="114">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D18" s="115">
+        <v>3</v>
+      </c>
+      <c r="E18" s="114">
+        <v>12.066700000000001</v>
+      </c>
+      <c r="F18" s="88">
+        <v>1.8298000000000001</v>
+      </c>
+      <c r="G18" s="88">
+        <v>0.15920000000000001</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="70"/>
+      <c r="J18" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="P16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="B17" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="75" t="s">
+      <c r="L18" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="76"/>
-      <c r="J17" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="175" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="130">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="D18" s="131">
-        <v>3</v>
-      </c>
-      <c r="E18" s="130">
-        <v>12.066700000000001</v>
-      </c>
-      <c r="F18" s="94">
-        <v>1.8298000000000001</v>
-      </c>
-      <c r="G18" s="94">
-        <v>0.15920000000000001</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="64" t="s">
+      <c r="M18" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="123"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B19" s="59" t="s">
         <v>46</v>
-      </c>
-      <c r="K18" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="M18" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="P18" s="174"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B19" s="65" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="17">
         <v>237.4</v>
@@ -3258,93 +3351,92 @@
       <c r="D19" s="14">
         <v>36</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="60">
         <v>6.5944000000000003</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="68"/>
-      <c r="P19" s="175" t="s">
-        <v>105</v>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="62"/>
+      <c r="P19" s="124" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="87">
+      <c r="B20" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="81">
         <f>C18+C19</f>
         <v>273.60000000000002</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="82">
         <v>39</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="81">
         <f>E18+E19</f>
         <v>18.661100000000001</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="66" t="s">
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" s="62"/>
+      <c r="P20" s="124" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="124" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="67" t="s">
+      <c r="E22" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="N20" s="68"/>
-      <c r="P20" s="175" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P21" s="175" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="179">
-        <f>C20</f>
-        <v>273.60000000000002</v>
-      </c>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="148" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="149" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="151">
+      <c r="K22" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="L22" s="131">
         <f>1-E19/E20</f>
         <v>0.64662318941541497</v>
       </c>
-      <c r="P22" s="177" t="s">
-        <v>116</v>
+      <c r="P22" s="126" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -3352,127 +3444,126 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="152"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="132"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="180">
-        <f>D20</f>
-        <v>39</v>
-      </c>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
+      <c r="B24" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="136" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
     </row>
     <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="56"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+      <c r="B27" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="70"/>
+      <c r="J27" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="124" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="85">
+        <v>206.9</v>
+      </c>
+      <c r="D28" s="86">
+        <v>4</v>
+      </c>
+      <c r="E28" s="85">
+        <v>51.7</v>
+      </c>
+      <c r="F28" s="77">
+        <v>27.1</v>
+      </c>
+      <c r="G28" s="77">
+        <v>2.7009999999999998E-10</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="70"/>
+      <c r="J28" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="P26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="B27" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="75" t="s">
+      <c r="L28" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="76"/>
-      <c r="J27" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="175" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="91">
-        <v>206.9</v>
-      </c>
-      <c r="D28" s="92">
-        <v>4</v>
-      </c>
-      <c r="E28" s="91">
-        <v>51.7</v>
-      </c>
-      <c r="F28" s="83">
-        <v>27.1</v>
-      </c>
-      <c r="G28" s="83">
-        <v>2.7009999999999998E-10</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="76"/>
-      <c r="J28" s="64" t="s">
+      <c r="M28" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="N28" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" s="123"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="59" t="s">
         <v>46</v>
-      </c>
-      <c r="K28" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="M28" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="N28" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="P28" s="174"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="65" t="s">
-        <v>48</v>
       </c>
       <c r="C29" s="17">
         <v>66.8</v>
@@ -3480,91 +3571,90 @@
       <c r="D29" s="14">
         <v>35</v>
       </c>
-      <c r="E29" s="66">
+      <c r="E29" s="60">
         <v>1.9</v>
       </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="66" t="s">
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="N29" s="62"/>
+      <c r="P29" s="124" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="81">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="D30" s="82">
+        <v>39</v>
+      </c>
+      <c r="E30" s="81">
+        <v>7</v>
+      </c>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="N30" s="62"/>
+      <c r="P30" s="124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="124" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="134" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="M29" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="N29" s="68"/>
-      <c r="P29" s="175" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="87">
-        <v>273.60000000000002</v>
-      </c>
-      <c r="D30" s="88">
-        <v>39</v>
-      </c>
-      <c r="E30" s="87">
-        <v>7</v>
-      </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="N30" s="68"/>
-      <c r="P30" s="175" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P31" s="175" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="179">
-        <f>C30</f>
-        <v>273.60000000000002</v>
-      </c>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="148" t="s">
-        <v>61</v>
-      </c>
-      <c r="K32" s="149" t="s">
-        <v>73</v>
-      </c>
-      <c r="L32" s="151">
+      <c r="L32" s="131">
         <f>1-E29/E30</f>
         <v>0.72857142857142865</v>
       </c>
-      <c r="P32" s="175" t="s">
-        <v>118</v>
+      <c r="P32" s="124" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -3572,142 +3662,130 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="148"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="152"/>
-      <c r="P33" s="175" t="s">
-        <v>110</v>
+      <c r="J33" s="135"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="132"/>
+      <c r="P33" s="124" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="180">
-        <f>D30</f>
-        <v>39</v>
-      </c>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="P34" s="177" t="s">
-        <v>111</v>
+      <c r="B34" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="P34" s="126" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>4</v>
       </c>
-      <c r="B36" s="150" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
+      <c r="B36" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="150"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="181" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="182"/>
-      <c r="D39" s="182"/>
-      <c r="E39" s="182"/>
-      <c r="F39" s="182"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="183"/>
+      <c r="B39" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="139"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="184"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="185"/>
-      <c r="H40" s="186"/>
-    </row>
-    <row r="42" spans="1:16" s="85" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="84">
+      <c r="B40" s="140"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="142"/>
+    </row>
+    <row r="42" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78">
         <v>5</v>
       </c>
-      <c r="B42" s="85" t="s">
-        <v>75</v>
+      <c r="B42" s="79" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="138" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="140"/>
+      <c r="B44" s="143" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="145"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="141"/>
-      <c r="C45" s="142"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="143"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="148"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="141"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="143"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="148"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="144"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="146"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="J12:J13"/>
     <mergeCell ref="B39:H40"/>
     <mergeCell ref="B44:J47"/>
     <mergeCell ref="E32:H32"/>
@@ -3715,6 +3793,17 @@
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="E34:H34"/>
     <mergeCell ref="B36:H37"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3725,8 +3814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y143"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3735,17 +3824,18 @@
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3753,103 +3843,103 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="161" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="162"/>
-      <c r="K4" s="163"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="160" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="161"/>
+      <c r="K4" s="162"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
+        <v>14</v>
+      </c>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
     </row>
     <row r="8" spans="1:25" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="N8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="164" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="N8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
+      <c r="O8" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
     </row>
     <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B9" s="27">
@@ -3858,53 +3948,53 @@
       <c r="C9" s="4">
         <v>10</v>
       </c>
-      <c r="D9" s="134">
+      <c r="D9" s="118">
         <v>10</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="118">
         <v>10</v>
       </c>
-      <c r="F9" s="134">
+      <c r="F9" s="118">
         <v>11</v>
       </c>
-      <c r="G9" s="134">
+      <c r="G9" s="118">
         <v>11</v>
       </c>
-      <c r="H9" s="134">
+      <c r="H9" s="118">
         <v>13</v>
       </c>
-      <c r="I9" s="134">
+      <c r="I9" s="118">
         <v>12</v>
       </c>
-      <c r="J9" s="134">
+      <c r="J9" s="118">
         <v>15</v>
       </c>
-      <c r="K9" s="134">
+      <c r="K9" s="118">
         <v>15</v>
       </c>
-      <c r="L9" s="134">
+      <c r="L9" s="118">
         <v>13</v>
       </c>
-      <c r="M9" s="134">
+      <c r="M9" s="118">
         <v>15</v>
       </c>
       <c r="N9" s="29">
         <f>AVERAGE(D9:M9)</f>
         <v>12.5</v>
       </c>
-      <c r="O9" s="178">
+      <c r="O9" s="127">
         <v>12.5</v>
       </c>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B10" s="28">
@@ -3913,53 +4003,53 @@
       <c r="C10" s="4">
         <v>10</v>
       </c>
-      <c r="D10" s="134">
+      <c r="D10" s="118">
         <v>11</v>
       </c>
-      <c r="E10" s="134">
+      <c r="E10" s="118">
         <v>11</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="118">
         <v>13</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="118">
         <v>13</v>
       </c>
-      <c r="H10" s="134">
+      <c r="H10" s="118">
         <v>15</v>
       </c>
-      <c r="I10" s="134">
+      <c r="I10" s="118">
         <v>16</v>
       </c>
-      <c r="J10" s="134">
+      <c r="J10" s="118">
         <v>15</v>
       </c>
-      <c r="K10" s="134">
+      <c r="K10" s="118">
         <v>14</v>
       </c>
-      <c r="L10" s="134">
+      <c r="L10" s="118">
         <v>18</v>
       </c>
-      <c r="M10" s="134">
+      <c r="M10" s="118">
         <v>17</v>
       </c>
       <c r="N10" s="29">
         <f t="shared" ref="N10:N12" si="0">AVERAGE(D10:M10)</f>
         <v>14.3</v>
       </c>
-      <c r="O10" s="178">
+      <c r="O10" s="127">
         <v>14.5</v>
       </c>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="28">
@@ -3968,53 +4058,53 @@
       <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="118">
         <v>8</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="118">
         <v>11</v>
       </c>
-      <c r="F11" s="134">
+      <c r="F11" s="118">
         <v>14</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="118">
         <v>13</v>
       </c>
-      <c r="H11" s="134">
+      <c r="H11" s="118">
         <v>15</v>
       </c>
-      <c r="I11" s="134">
+      <c r="I11" s="118">
         <v>15</v>
       </c>
-      <c r="J11" s="134">
+      <c r="J11" s="118">
         <v>17</v>
       </c>
-      <c r="K11" s="134">
+      <c r="K11" s="118">
         <v>17</v>
       </c>
-      <c r="L11" s="134">
+      <c r="L11" s="118">
         <v>17</v>
       </c>
-      <c r="M11" s="134">
+      <c r="M11" s="118">
         <v>17</v>
       </c>
       <c r="N11" s="29">
         <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
-      <c r="O11" s="178">
+      <c r="O11" s="127">
         <v>14.4</v>
       </c>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
     </row>
     <row r="12" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="28">
@@ -4023,53 +4113,53 @@
       <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="118">
         <v>12</v>
       </c>
-      <c r="E12" s="134">
+      <c r="E12" s="118">
         <v>11</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="118">
         <v>13</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="118">
         <v>14</v>
       </c>
-      <c r="H12" s="134">
+      <c r="H12" s="118">
         <v>15</v>
       </c>
-      <c r="I12" s="134">
+      <c r="I12" s="118">
         <v>14</v>
       </c>
-      <c r="J12" s="134">
+      <c r="J12" s="118">
         <v>18</v>
       </c>
-      <c r="K12" s="134">
+      <c r="K12" s="118">
         <v>17</v>
       </c>
-      <c r="L12" s="134">
+      <c r="L12" s="118">
         <v>18</v>
       </c>
-      <c r="M12" s="137">
+      <c r="M12" s="121">
         <v>18</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="O12" s="178">
+      <c r="O12" s="127">
         <v>15</v>
       </c>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="85"/>
-      <c r="S12" s="85"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
-      <c r="V12" s="85"/>
-      <c r="W12" s="85"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B13" s="31"/>
@@ -4083,253 +4173,259 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="22"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="79"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
+        <v>15</v>
+      </c>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="79"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="85"/>
-      <c r="S15" s="85"/>
-      <c r="T15" s="85"/>
-      <c r="U15" s="85"/>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="79"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
     </row>
     <row r="17" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="85"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
     </row>
     <row r="18" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="165" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="166"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="166"/>
-      <c r="K35" s="166"/>
-      <c r="L35" s="166"/>
-      <c r="M35" s="167"/>
+      <c r="B35" s="164" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="166"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="168"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="169"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="169"/>
-      <c r="M36" s="170"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="169"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="165" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="166"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
-      <c r="K38" s="166"/>
-      <c r="L38" s="166"/>
-      <c r="M38" s="167"/>
+      <c r="B38" s="164" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="166"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="168"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="169"/>
-      <c r="F39" s="169"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="169"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="170"/>
+      <c r="B39" s="167"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="168"/>
+      <c r="K39" s="168"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="169"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>3</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="L42" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M44" s="161"/>
-      <c r="N44" s="163"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="138" t="s">
+        <v>172</v>
+      </c>
+      <c r="N44" s="138"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M45" s="181"/>
+      <c r="N45" s="181"/>
     </row>
     <row r="46" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B46" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B47" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="R47" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
+        <v>24</v>
+      </c>
+      <c r="R47" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="S47" s="93"/>
+      <c r="T47" s="93"/>
     </row>
     <row r="48" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B48" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="R48" s="175" t="s">
-        <v>106</v>
-      </c>
-      <c r="S48" s="101"/>
+        <v>23</v>
+      </c>
+      <c r="R48" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="S48" s="93"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="R49" s="175" t="s">
-        <v>107</v>
+      <c r="R49" s="124" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B50" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C50" s="37">
-        <v>6.5944000000000003</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F50" s="19">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I50" s="38">
         <f>TINV(0.05,F50)</f>
-        <v>2.028094000980452</v>
+        <v>2.0369333434601011</v>
       </c>
       <c r="J50" s="24"/>
       <c r="K50" s="36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L50" s="19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N50" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O50" s="39">
         <f>I50*SQRT(2*C50/L50)</f>
-        <v>5.2080569410688069</v>
-      </c>
-      <c r="R50" s="175" t="s">
-        <v>108</v>
+        <v>0.91094428432254249</v>
+      </c>
+      <c r="R50" s="124" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B51" s="34"/>
-      <c r="R51" s="175" t="s">
-        <v>109</v>
+      <c r="R51" s="124" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B52" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="R52" s="175" t="s">
-        <v>110</v>
+        <v>118</v>
+      </c>
+      <c r="R52" s="124" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
@@ -4338,8 +4434,8 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="177" t="s">
-        <v>111</v>
+      <c r="R53" s="126" t="s">
+        <v>107</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
@@ -4347,10 +4443,10 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N54" s="49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4362,184 +4458,254 @@
     </row>
     <row r="55" spans="1:21" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E55" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="153" t="s">
-        <v>36</v>
-      </c>
-      <c r="H55" s="154"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
+        <v>11</v>
+      </c>
+      <c r="F55" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="171"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
       <c r="N55" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="O55" s="12">
+        <v>1</v>
+      </c>
+      <c r="P55" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>3</v>
+      </c>
       <c r="R55" s="48"/>
-      <c r="S55" s="98"/>
-      <c r="T55" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="U55" s="100"/>
+      <c r="S55" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="T55" s="92"/>
+      <c r="U55" s="92"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B56" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="44">
         <v>12.5</v>
       </c>
       <c r="D56" s="45">
+        <v>10</v>
+      </c>
+      <c r="E56" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="F56" s="47">
+        <f>E56-C56</f>
+        <v>2</v>
+      </c>
+      <c r="G56" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="H56" s="173"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="N56" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E56" s="45"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="N56" s="14" t="s">
-        <v>1</v>
-      </c>
       <c r="O56" s="17"/>
-      <c r="P56" s="14"/>
+      <c r="P56" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="Q56" s="14"/>
       <c r="R56" s="48"/>
-      <c r="S56" s="98"/>
-      <c r="T56" s="100"/>
-      <c r="U56" s="100"/>
+      <c r="S56" s="124" t="s">
+        <v>152</v>
+      </c>
+      <c r="T56" s="92"/>
+      <c r="U56" s="92"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B57" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="41">
-        <v>14.5</v>
-      </c>
-      <c r="D57" s="105">
-        <v>10</v>
-      </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="158"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
+      <c r="B57" s="14">
+        <v>0</v>
+      </c>
+      <c r="C57" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="D57" s="97">
+        <v>20</v>
+      </c>
+      <c r="E57" s="41">
+        <v>14.4</v>
+      </c>
+      <c r="F57" s="47">
+        <f t="shared" ref="F57:F61" si="1">E57-C57</f>
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="G57" s="158" t="s">
+        <v>150</v>
+      </c>
+      <c r="H57" s="159"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
       <c r="N57" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
       <c r="R57" s="18"/>
-      <c r="S57" s="99" t="s">
-        <v>124</v>
+      <c r="S57" s="124" t="s">
+        <v>153</v>
       </c>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B58" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="41">
-        <v>14.4</v>
-      </c>
-      <c r="D58" s="105">
-        <v>20</v>
-      </c>
-      <c r="E58" s="41"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="160"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
+      <c r="B58" s="14">
+        <v>0</v>
+      </c>
+      <c r="C58" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="D58" s="97">
+        <v>30</v>
+      </c>
+      <c r="E58" s="41">
+        <v>15</v>
+      </c>
+      <c r="F58" s="47">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="G58" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="157"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
       <c r="N58" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="O58" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
       <c r="R58" s="48"/>
-      <c r="S58" s="98" t="s">
-        <v>124</v>
+      <c r="S58" s="124" t="s">
+        <v>154</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B59" s="14" t="s">
-        <v>4</v>
+      <c r="B59" s="14">
+        <v>10</v>
       </c>
       <c r="C59" s="41">
-        <v>15</v>
-      </c>
-      <c r="D59" s="105">
-        <v>30</v>
-      </c>
-      <c r="E59" s="41"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="158"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="104"/>
+        <v>14.5</v>
+      </c>
+      <c r="D59" s="97">
+        <v>20</v>
+      </c>
+      <c r="E59" s="41">
+        <v>14.4</v>
+      </c>
+      <c r="F59" s="47">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="G59" s="158" t="s">
+        <v>151</v>
+      </c>
+      <c r="H59" s="159"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
       <c r="N59" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="100" t="s">
-        <v>124</v>
+      <c r="S59" s="124" t="s">
+        <v>155</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B60" s="105"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="159"/>
-      <c r="H60" s="160"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="104"/>
+      <c r="B60" s="97">
+        <v>10</v>
+      </c>
+      <c r="C60" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="D60" s="97">
+        <v>30</v>
+      </c>
+      <c r="E60" s="41">
+        <v>15</v>
+      </c>
+      <c r="F60" s="47">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="156" t="s">
+        <v>151</v>
+      </c>
+      <c r="H60" s="157"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="96"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="100" t="s">
-        <v>125</v>
+      <c r="S60" s="126" t="s">
+        <v>156</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B61" s="105"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="158"/>
-      <c r="I61" s="104"/>
-      <c r="J61" s="104"/>
+      <c r="B61" s="97">
+        <v>20</v>
+      </c>
+      <c r="C61" s="41">
+        <v>14.4</v>
+      </c>
+      <c r="D61" s="97">
+        <v>30</v>
+      </c>
+      <c r="E61" s="41">
+        <v>15</v>
+      </c>
+      <c r="F61" s="47">
+        <f t="shared" si="1"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="G61" s="158" t="s">
+        <v>151</v>
+      </c>
+      <c r="H61" s="159"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -4560,132 +4726,260 @@
         <v>4</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N63" s="49" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="S63" s="124" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C64" s="46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E64" s="46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H64" s="171" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" s="171"/>
+        <v>43</v>
+      </c>
+      <c r="H64" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="155"/>
       <c r="N64" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-    </row>
-    <row r="65" spans="2:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="B65" s="119"/>
-      <c r="C65" s="120"/>
-      <c r="D65" s="121"/>
-      <c r="E65" s="121"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="123"/>
-      <c r="H65" s="172"/>
-      <c r="I65" s="172"/>
+        <v>4</v>
+      </c>
+      <c r="O64" s="12">
+        <v>1</v>
+      </c>
+      <c r="P64" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="12">
+        <v>3</v>
+      </c>
+      <c r="S64" s="124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B65" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="D65" s="45">
+        <v>10</v>
+      </c>
+      <c r="E65" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="F65" s="47">
+        <f>E65-C65</f>
+        <v>2</v>
+      </c>
+      <c r="G65" s="111">
+        <v>3.771E-4</v>
+      </c>
+      <c r="H65" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="I65" s="154"/>
       <c r="N65" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O65" s="17"/>
+      <c r="P65" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q65" s="14"/>
+      <c r="S65" s="124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B66" s="14">
+        <v>0</v>
+      </c>
+      <c r="C66" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="D66" s="122">
+        <v>20</v>
+      </c>
+      <c r="E66" s="41">
+        <v>14.4</v>
+      </c>
+      <c r="F66" s="47">
+        <f t="shared" ref="F66:F70" si="2">E66-C66</f>
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="G66" s="111">
+        <v>7.1989999999999999E-4</v>
+      </c>
+      <c r="H66" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="I66" s="154"/>
+      <c r="N66" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="O65" s="17"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
-    </row>
-    <row r="66" spans="2:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="B66" s="124"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="172"/>
-      <c r="I66" s="172"/>
-      <c r="N66" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="17"/>
+      <c r="O66" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
-    </row>
-    <row r="67" spans="2:17" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="124"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="123"/>
-      <c r="H67" s="172"/>
-      <c r="I67" s="172"/>
+      <c r="S66" s="124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B67" s="14">
+        <v>0</v>
+      </c>
+      <c r="C67" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="D67" s="122">
+        <v>30</v>
+      </c>
+      <c r="E67" s="41">
+        <v>15</v>
+      </c>
+      <c r="F67" s="47">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="G67" s="111">
+        <v>1.4E-5</v>
+      </c>
+      <c r="H67" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="I67" s="154"/>
       <c r="N67" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O67" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="O67" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
-    </row>
-    <row r="68" spans="2:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="127"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="123"/>
-      <c r="H68" s="172"/>
-      <c r="I68" s="172"/>
+      <c r="S67" s="124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B68" s="14">
+        <v>10</v>
+      </c>
+      <c r="C68" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="D68" s="122">
+        <v>20</v>
+      </c>
+      <c r="E68" s="41">
+        <v>14.4</v>
+      </c>
+      <c r="F68" s="47">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="G68" s="111">
+        <v>0.99568840000000003</v>
+      </c>
+      <c r="H68" s="154" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68" s="154"/>
       <c r="N68" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="O68" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="O68" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B69" s="126"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="123"/>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B70" s="126"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="125"/>
-      <c r="F70" s="122"/>
-      <c r="G70" s="123"/>
-      <c r="H70" s="172"/>
-      <c r="I70" s="172"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S68" s="124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B69" s="122">
+        <v>10</v>
+      </c>
+      <c r="C69" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="D69" s="122">
+        <v>30</v>
+      </c>
+      <c r="E69" s="41">
+        <v>15</v>
+      </c>
+      <c r="F69" s="47">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="111">
+        <v>0.66539539999999997</v>
+      </c>
+      <c r="H69" s="154" t="s">
+        <v>151</v>
+      </c>
+      <c r="I69" s="154"/>
+      <c r="S69" s="124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B70" s="122">
+        <v>20</v>
+      </c>
+      <c r="C70" s="41">
+        <v>14.4</v>
+      </c>
+      <c r="D70" s="122">
+        <v>30</v>
+      </c>
+      <c r="E70" s="41">
+        <v>15</v>
+      </c>
+      <c r="F70" s="47">
+        <f t="shared" si="2"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="G70" s="111">
+        <v>0.52484500000000001</v>
+      </c>
+      <c r="H70" s="154" t="s">
+        <v>151</v>
+      </c>
+      <c r="I70" s="154"/>
+      <c r="S70" s="126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
       <c r="D73" s="50"/>
       <c r="E73" s="8"/>
@@ -4697,7 +4991,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1"/>
       <c r="D74" s="15"/>
       <c r="E74" s="18"/>
@@ -4709,7 +5003,7 @@
       <c r="K74" s="18"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1"/>
       <c r="D75" s="15"/>
       <c r="E75" s="18"/>
@@ -4721,7 +5015,7 @@
       <c r="K75" s="48"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1"/>
       <c r="D76" s="15"/>
       <c r="E76" s="48"/>
@@ -4733,7 +5027,7 @@
       <c r="K76" s="18"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1"/>
       <c r="D77" s="15"/>
       <c r="E77" s="18"/>
@@ -4745,7 +5039,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C78" s="1"/>
       <c r="D78" s="15"/>
       <c r="E78" s="18"/>
@@ -4757,7 +5051,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C79" s="1"/>
       <c r="D79" s="15"/>
       <c r="E79" s="18"/>
@@ -4769,7 +5063,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1"/>
       <c r="D80" s="15"/>
       <c r="E80" s="18"/>
@@ -4833,549 +5127,673 @@
       <c r="A92" s="3">
         <v>5</v>
       </c>
-      <c r="B92" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="60"/>
-      <c r="M92" s="60"/>
+      <c r="B92" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+      <c r="K92" s="54"/>
+      <c r="L92" s="54"/>
+      <c r="M92" s="54"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B93" s="60"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="60"/>
-      <c r="M93" s="60"/>
+      <c r="B93" s="54"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="54"/>
+      <c r="J93" s="54"/>
+      <c r="K93" s="54"/>
+      <c r="L93" s="54"/>
+      <c r="M93" s="54"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B95" s="51"/>
-      <c r="C95" s="52"/>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="52"/>
-      <c r="K95" s="52"/>
-      <c r="L95" s="52"/>
-      <c r="M95" s="53"/>
+      <c r="B95" s="175" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="174"/>
+      <c r="D95" s="174"/>
+      <c r="E95" s="174"/>
+      <c r="F95" s="174"/>
+      <c r="G95" s="174"/>
+      <c r="H95" s="174"/>
+      <c r="I95" s="174"/>
+      <c r="J95" s="174"/>
+      <c r="K95" s="174"/>
+      <c r="L95" s="174"/>
+      <c r="M95" s="176"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B96" s="54"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="55"/>
-      <c r="J96" s="55"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="55"/>
-      <c r="M96" s="56"/>
+      <c r="B96" s="177"/>
+      <c r="C96" s="178"/>
+      <c r="D96" s="178"/>
+      <c r="E96" s="178"/>
+      <c r="F96" s="178"/>
+      <c r="G96" s="178"/>
+      <c r="H96" s="178"/>
+      <c r="I96" s="178"/>
+      <c r="J96" s="178"/>
+      <c r="K96" s="178"/>
+      <c r="L96" s="178"/>
+      <c r="M96" s="179"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>6</v>
       </c>
-      <c r="B98" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="60"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="60"/>
-      <c r="M98" s="60"/>
+      <c r="B98" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="54"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="54"/>
+      <c r="L98" s="54"/>
+      <c r="M98" s="54"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="60"/>
-      <c r="H99" s="60"/>
-      <c r="I99" s="60"/>
-      <c r="J99" s="60"/>
-      <c r="K99" s="60"/>
-      <c r="L99" s="60"/>
-      <c r="M99" s="60"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="54"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="54"/>
+      <c r="J99" s="54"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="54"/>
+      <c r="M99" s="54"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B101" s="147"/>
-      <c r="C101" s="147"/>
-      <c r="D101" s="147"/>
-      <c r="E101" s="147"/>
-      <c r="F101" s="147"/>
-      <c r="G101" s="147"/>
-      <c r="H101" s="147"/>
-      <c r="I101" s="147"/>
-      <c r="J101" s="147"/>
-      <c r="K101" s="147"/>
-      <c r="L101" s="147"/>
-      <c r="M101" s="147"/>
+      <c r="B101" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="138"/>
+      <c r="D101" s="138"/>
+      <c r="E101" s="138"/>
+      <c r="F101" s="138"/>
+      <c r="G101" s="138"/>
+      <c r="H101" s="138"/>
+      <c r="I101" s="138"/>
+      <c r="J101" s="138"/>
+      <c r="K101" s="138"/>
+      <c r="L101" s="138"/>
+      <c r="M101" s="139"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B102" s="147"/>
-      <c r="C102" s="147"/>
-      <c r="D102" s="147"/>
-      <c r="E102" s="147"/>
-      <c r="F102" s="147"/>
-      <c r="G102" s="147"/>
-      <c r="H102" s="147"/>
-      <c r="I102" s="147"/>
-      <c r="J102" s="147"/>
-      <c r="K102" s="147"/>
-      <c r="L102" s="147"/>
-      <c r="M102" s="147"/>
+      <c r="B102" s="180"/>
+      <c r="C102" s="181"/>
+      <c r="D102" s="181"/>
+      <c r="E102" s="181"/>
+      <c r="F102" s="181"/>
+      <c r="G102" s="181"/>
+      <c r="H102" s="181"/>
+      <c r="I102" s="181"/>
+      <c r="J102" s="181"/>
+      <c r="K102" s="181"/>
+      <c r="L102" s="181"/>
+      <c r="M102" s="182"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B103" s="147"/>
-      <c r="C103" s="147"/>
-      <c r="D103" s="147"/>
-      <c r="E103" s="147"/>
-      <c r="F103" s="147"/>
-      <c r="G103" s="147"/>
-      <c r="H103" s="147"/>
-      <c r="I103" s="147"/>
-      <c r="J103" s="147"/>
-      <c r="K103" s="147"/>
-      <c r="L103" s="147"/>
-      <c r="M103" s="147"/>
+      <c r="B103" s="180"/>
+      <c r="C103" s="181"/>
+      <c r="D103" s="181"/>
+      <c r="E103" s="181"/>
+      <c r="F103" s="181"/>
+      <c r="G103" s="181"/>
+      <c r="H103" s="181"/>
+      <c r="I103" s="181"/>
+      <c r="J103" s="181"/>
+      <c r="K103" s="181"/>
+      <c r="L103" s="181"/>
+      <c r="M103" s="182"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B104" s="147"/>
-      <c r="C104" s="147"/>
-      <c r="D104" s="147"/>
-      <c r="E104" s="147"/>
-      <c r="F104" s="147"/>
-      <c r="G104" s="147"/>
-      <c r="H104" s="147"/>
-      <c r="I104" s="147"/>
-      <c r="J104" s="147"/>
-      <c r="K104" s="147"/>
-      <c r="L104" s="147"/>
-      <c r="M104" s="147"/>
+      <c r="B104" s="180"/>
+      <c r="C104" s="181"/>
+      <c r="D104" s="181"/>
+      <c r="E104" s="181"/>
+      <c r="F104" s="181"/>
+      <c r="G104" s="181"/>
+      <c r="H104" s="181"/>
+      <c r="I104" s="181"/>
+      <c r="J104" s="181"/>
+      <c r="K104" s="181"/>
+      <c r="L104" s="181"/>
+      <c r="M104" s="182"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B105" s="147"/>
-      <c r="C105" s="147"/>
-      <c r="D105" s="147"/>
-      <c r="E105" s="147"/>
-      <c r="F105" s="147"/>
-      <c r="G105" s="147"/>
-      <c r="H105" s="147"/>
-      <c r="I105" s="147"/>
-      <c r="J105" s="147"/>
-      <c r="K105" s="147"/>
-      <c r="L105" s="147"/>
-      <c r="M105" s="147"/>
+      <c r="B105" s="180"/>
+      <c r="C105" s="181"/>
+      <c r="D105" s="181"/>
+      <c r="E105" s="181"/>
+      <c r="F105" s="181"/>
+      <c r="G105" s="181"/>
+      <c r="H105" s="181"/>
+      <c r="I105" s="181"/>
+      <c r="J105" s="181"/>
+      <c r="K105" s="181"/>
+      <c r="L105" s="181"/>
+      <c r="M105" s="182"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B106" s="147"/>
-      <c r="C106" s="147"/>
-      <c r="D106" s="147"/>
-      <c r="E106" s="147"/>
-      <c r="F106" s="147"/>
-      <c r="G106" s="147"/>
-      <c r="H106" s="147"/>
-      <c r="I106" s="147"/>
-      <c r="J106" s="147"/>
-      <c r="K106" s="147"/>
-      <c r="L106" s="147"/>
-      <c r="M106" s="147"/>
+      <c r="B106" s="140"/>
+      <c r="C106" s="141"/>
+      <c r="D106" s="141"/>
+      <c r="E106" s="141"/>
+      <c r="F106" s="141"/>
+      <c r="G106" s="141"/>
+      <c r="H106" s="141"/>
+      <c r="I106" s="141"/>
+      <c r="J106" s="141"/>
+      <c r="K106" s="141"/>
+      <c r="L106" s="141"/>
+      <c r="M106" s="142"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L109" s="101"/>
-      <c r="M109" s="101"/>
-      <c r="N109" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="O109" s="101"/>
-      <c r="P109" s="101"/>
+      <c r="L109" s="93"/>
+      <c r="M109" s="93"/>
+      <c r="N109" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="O109" s="93"/>
+      <c r="P109" s="93"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>80</v>
-      </c>
-      <c r="F110" s="102"/>
-      <c r="L110" s="175" t="s">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="F110" s="38">
+        <v>5.4789000000000003</v>
+      </c>
+      <c r="L110" s="124" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L111" s="174"/>
+      <c r="L111" s="123"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>81</v>
-      </c>
-      <c r="F112" s="102"/>
-      <c r="L112" s="175" t="s">
-        <v>126</v>
+        <v>79</v>
+      </c>
+      <c r="F112" s="183" t="s">
+        <v>169</v>
+      </c>
+      <c r="L112" s="124" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L113" s="175" t="s">
-        <v>127</v>
+      <c r="L113" s="124" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B114" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L114" s="177" t="s">
-        <v>128</v>
+        <v>80</v>
+      </c>
+      <c r="L114" s="126" t="s">
+        <v>121</v>
       </c>
       <c r="M114" s="20"/>
     </row>
     <row r="115" spans="1:20" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C115" s="46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E115" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="F115" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="G115" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="F115" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="H115" s="171" t="s">
-        <v>36</v>
-      </c>
-      <c r="I115" s="171"/>
-      <c r="L115" s="101"/>
+      <c r="G115" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H115" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" s="155"/>
+      <c r="L115" s="93"/>
       <c r="M115" s="20"/>
     </row>
-    <row r="116" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="B116" s="43"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="173"/>
-      <c r="I116" s="173"/>
-      <c r="L116" s="101"/>
-    </row>
-    <row r="117" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="B117" s="40"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="46"/>
-      <c r="H117" s="173"/>
-      <c r="I117" s="173"/>
-      <c r="L117" s="101"/>
-      <c r="M117" s="101"/>
-      <c r="N117" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="O117" s="101"/>
-      <c r="P117" s="101"/>
-      <c r="Q117" s="101"/>
-      <c r="R117" s="101"/>
-      <c r="S117" s="101"/>
-      <c r="T117" s="101"/>
-    </row>
-    <row r="118" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="B118" s="40"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="46"/>
-      <c r="H118" s="173"/>
-      <c r="I118" s="173"/>
-      <c r="L118" s="175" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q118" s="85"/>
-    </row>
-    <row r="119" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B119" s="42"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="46"/>
-      <c r="H119" s="173"/>
-      <c r="I119" s="173"/>
-      <c r="L119" s="174"/>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B116" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="D116" s="45">
+        <v>10</v>
+      </c>
+      <c r="E116" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="F116" s="47">
+        <f>E116-C116</f>
+        <v>2</v>
+      </c>
+      <c r="G116" s="46">
+        <v>0.17</v>
+      </c>
+      <c r="H116" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="I116" s="153"/>
+      <c r="L116" s="93"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B117" s="14">
+        <v>0</v>
+      </c>
+      <c r="C117" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="D117" s="122">
+        <v>20</v>
+      </c>
+      <c r="E117" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="F117" s="47">
+        <f t="shared" ref="F117:F121" si="3">E117-C117</f>
+        <v>2</v>
+      </c>
+      <c r="G117" s="46">
+        <v>0.17</v>
+      </c>
+      <c r="H117" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="I117" s="153"/>
+      <c r="L117" s="93"/>
+      <c r="M117" s="93"/>
+      <c r="N117" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="O117" s="93"/>
+      <c r="P117" s="93"/>
+      <c r="Q117" s="93"/>
+      <c r="R117" s="93"/>
+      <c r="S117" s="93"/>
+      <c r="T117" s="93"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B118" s="14">
+        <v>0</v>
+      </c>
+      <c r="C118" s="44">
+        <v>12.5</v>
+      </c>
+      <c r="D118" s="122">
+        <v>30</v>
+      </c>
+      <c r="E118" s="41">
+        <v>15</v>
+      </c>
+      <c r="F118" s="47">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="G118" s="46">
+        <v>0.17</v>
+      </c>
+      <c r="H118" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="I118" s="153"/>
+      <c r="L118" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q118" s="79"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B119" s="14">
+        <v>10</v>
+      </c>
+      <c r="C119" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="D119" s="122">
+        <v>20</v>
+      </c>
+      <c r="E119" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="F119" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="46">
+        <v>0.94</v>
+      </c>
+      <c r="H119" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="I119" s="153"/>
+      <c r="L119" s="123"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B120" s="9"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="173"/>
-      <c r="I120" s="173"/>
-      <c r="L120" s="175" t="s">
-        <v>129</v>
+      <c r="B120" s="122">
+        <v>10</v>
+      </c>
+      <c r="C120" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="D120" s="122">
+        <v>30</v>
+      </c>
+      <c r="E120" s="41">
+        <v>15</v>
+      </c>
+      <c r="F120" s="47">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G120" s="46">
+        <v>0.81</v>
+      </c>
+      <c r="H120" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="I120" s="153"/>
+      <c r="L120" s="124" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B121" s="9"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="46"/>
-      <c r="H121" s="173"/>
-      <c r="I121" s="173"/>
-      <c r="L121" s="174"/>
+      <c r="B121" s="122">
+        <v>20</v>
+      </c>
+      <c r="C121" s="41">
+        <v>14.5</v>
+      </c>
+      <c r="D121" s="122">
+        <v>30</v>
+      </c>
+      <c r="E121" s="41">
+        <v>15</v>
+      </c>
+      <c r="F121" s="47">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G121" s="46">
+        <v>0.81</v>
+      </c>
+      <c r="H121" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="I121" s="153"/>
+      <c r="L121" s="123"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L122" s="175" t="s">
-        <v>130</v>
+      <c r="L122" s="124" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L123" s="175" t="s">
-        <v>131</v>
+      <c r="L123" s="124" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L124" s="175" t="s">
-        <v>132</v>
+      <c r="L124" s="124" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L125" s="175" t="s">
-        <v>133</v>
+      <c r="L125" s="124" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L126" s="176"/>
+      <c r="L126" s="125"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" t="s">
-        <v>87</v>
-      </c>
-      <c r="L127" s="177" t="s">
-        <v>134</v>
+        <v>85</v>
+      </c>
+      <c r="L127" s="126" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B129" s="147"/>
-      <c r="C129" s="147"/>
-      <c r="D129" s="147"/>
-      <c r="E129" s="147"/>
-      <c r="F129" s="147"/>
-      <c r="G129" s="147"/>
-      <c r="H129" s="147"/>
-      <c r="I129" s="147"/>
-      <c r="J129" s="147"/>
-      <c r="K129" s="147"/>
-      <c r="L129" s="147"/>
-      <c r="M129" s="147"/>
+      <c r="B129" s="133" t="s">
+        <v>170</v>
+      </c>
+      <c r="C129" s="133"/>
+      <c r="D129" s="133"/>
+      <c r="E129" s="133"/>
+      <c r="F129" s="133"/>
+      <c r="G129" s="133"/>
+      <c r="H129" s="133"/>
+      <c r="I129" s="133"/>
+      <c r="J129" s="133"/>
+      <c r="K129" s="133"/>
+      <c r="L129" s="133"/>
+      <c r="M129" s="133"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B130" s="147"/>
-      <c r="C130" s="147"/>
-      <c r="D130" s="147"/>
-      <c r="E130" s="147"/>
-      <c r="F130" s="147"/>
-      <c r="G130" s="147"/>
-      <c r="H130" s="147"/>
-      <c r="I130" s="147"/>
-      <c r="J130" s="147"/>
-      <c r="K130" s="147"/>
-      <c r="L130" s="147"/>
-      <c r="M130" s="147"/>
+      <c r="B130" s="133"/>
+      <c r="C130" s="133"/>
+      <c r="D130" s="133"/>
+      <c r="E130" s="133"/>
+      <c r="F130" s="133"/>
+      <c r="G130" s="133"/>
+      <c r="H130" s="133"/>
+      <c r="I130" s="133"/>
+      <c r="J130" s="133"/>
+      <c r="K130" s="133"/>
+      <c r="L130" s="133"/>
+      <c r="M130" s="133"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B131" s="147"/>
-      <c r="C131" s="147"/>
-      <c r="D131" s="147"/>
-      <c r="E131" s="147"/>
-      <c r="F131" s="147"/>
-      <c r="G131" s="147"/>
-      <c r="H131" s="147"/>
-      <c r="I131" s="147"/>
-      <c r="J131" s="147"/>
-      <c r="K131" s="147"/>
-      <c r="L131" s="147"/>
-      <c r="M131" s="147"/>
+      <c r="B131" s="133"/>
+      <c r="C131" s="133"/>
+      <c r="D131" s="133"/>
+      <c r="E131" s="133"/>
+      <c r="F131" s="133"/>
+      <c r="G131" s="133"/>
+      <c r="H131" s="133"/>
+      <c r="I131" s="133"/>
+      <c r="J131" s="133"/>
+      <c r="K131" s="133"/>
+      <c r="L131" s="133"/>
+      <c r="M131" s="133"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B132" s="147"/>
-      <c r="C132" s="147"/>
-      <c r="D132" s="147"/>
-      <c r="E132" s="147"/>
-      <c r="F132" s="147"/>
-      <c r="G132" s="147"/>
-      <c r="H132" s="147"/>
-      <c r="I132" s="147"/>
-      <c r="J132" s="147"/>
-      <c r="K132" s="147"/>
-      <c r="L132" s="147"/>
-      <c r="M132" s="147"/>
+      <c r="B132" s="133"/>
+      <c r="C132" s="133"/>
+      <c r="D132" s="133"/>
+      <c r="E132" s="133"/>
+      <c r="F132" s="133"/>
+      <c r="G132" s="133"/>
+      <c r="H132" s="133"/>
+      <c r="I132" s="133"/>
+      <c r="J132" s="133"/>
+      <c r="K132" s="133"/>
+      <c r="L132" s="133"/>
+      <c r="M132" s="133"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B133" s="147"/>
-      <c r="C133" s="147"/>
-      <c r="D133" s="147"/>
-      <c r="E133" s="147"/>
-      <c r="F133" s="147"/>
-      <c r="G133" s="147"/>
-      <c r="H133" s="147"/>
-      <c r="I133" s="147"/>
-      <c r="J133" s="147"/>
-      <c r="K133" s="147"/>
-      <c r="L133" s="147"/>
-      <c r="M133" s="147"/>
+      <c r="B133" s="133"/>
+      <c r="C133" s="133"/>
+      <c r="D133" s="133"/>
+      <c r="E133" s="133"/>
+      <c r="F133" s="133"/>
+      <c r="G133" s="133"/>
+      <c r="H133" s="133"/>
+      <c r="I133" s="133"/>
+      <c r="J133" s="133"/>
+      <c r="K133" s="133"/>
+      <c r="L133" s="133"/>
+      <c r="M133" s="133"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B134" s="147"/>
-      <c r="C134" s="147"/>
-      <c r="D134" s="147"/>
-      <c r="E134" s="147"/>
-      <c r="F134" s="147"/>
-      <c r="G134" s="147"/>
-      <c r="H134" s="147"/>
-      <c r="I134" s="147"/>
-      <c r="J134" s="147"/>
-      <c r="K134" s="147"/>
-      <c r="L134" s="147"/>
-      <c r="M134" s="147"/>
+      <c r="B134" s="133"/>
+      <c r="C134" s="133"/>
+      <c r="D134" s="133"/>
+      <c r="E134" s="133"/>
+      <c r="F134" s="133"/>
+      <c r="G134" s="133"/>
+      <c r="H134" s="133"/>
+      <c r="I134" s="133"/>
+      <c r="J134" s="133"/>
+      <c r="K134" s="133"/>
+      <c r="L134" s="133"/>
+      <c r="M134" s="133"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B138" s="147"/>
-      <c r="C138" s="147"/>
-      <c r="D138" s="147"/>
-      <c r="E138" s="147"/>
-      <c r="F138" s="147"/>
-      <c r="G138" s="147"/>
-      <c r="H138" s="147"/>
-      <c r="I138" s="147"/>
-      <c r="J138" s="147"/>
-      <c r="K138" s="147"/>
-      <c r="L138" s="147"/>
-      <c r="M138" s="147"/>
+      <c r="B138" s="137" t="s">
+        <v>171</v>
+      </c>
+      <c r="C138" s="138"/>
+      <c r="D138" s="138"/>
+      <c r="E138" s="138"/>
+      <c r="F138" s="138"/>
+      <c r="G138" s="138"/>
+      <c r="H138" s="138"/>
+      <c r="I138" s="138"/>
+      <c r="J138" s="138"/>
+      <c r="K138" s="138"/>
+      <c r="L138" s="138"/>
+      <c r="M138" s="139"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B139" s="147"/>
-      <c r="C139" s="147"/>
-      <c r="D139" s="147"/>
-      <c r="E139" s="147"/>
-      <c r="F139" s="147"/>
-      <c r="G139" s="147"/>
-      <c r="H139" s="147"/>
-      <c r="I139" s="147"/>
-      <c r="J139" s="147"/>
-      <c r="K139" s="147"/>
-      <c r="L139" s="147"/>
-      <c r="M139" s="147"/>
+      <c r="B139" s="180"/>
+      <c r="C139" s="181"/>
+      <c r="D139" s="181"/>
+      <c r="E139" s="181"/>
+      <c r="F139" s="181"/>
+      <c r="G139" s="181"/>
+      <c r="H139" s="181"/>
+      <c r="I139" s="181"/>
+      <c r="J139" s="181"/>
+      <c r="K139" s="181"/>
+      <c r="L139" s="181"/>
+      <c r="M139" s="182"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B140" s="147"/>
-      <c r="C140" s="147"/>
-      <c r="D140" s="147"/>
-      <c r="E140" s="147"/>
-      <c r="F140" s="147"/>
-      <c r="G140" s="147"/>
-      <c r="H140" s="147"/>
-      <c r="I140" s="147"/>
-      <c r="J140" s="147"/>
-      <c r="K140" s="147"/>
-      <c r="L140" s="147"/>
-      <c r="M140" s="147"/>
+      <c r="B140" s="180"/>
+      <c r="C140" s="181"/>
+      <c r="D140" s="181"/>
+      <c r="E140" s="181"/>
+      <c r="F140" s="181"/>
+      <c r="G140" s="181"/>
+      <c r="H140" s="181"/>
+      <c r="I140" s="181"/>
+      <c r="J140" s="181"/>
+      <c r="K140" s="181"/>
+      <c r="L140" s="181"/>
+      <c r="M140" s="182"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B141" s="147"/>
-      <c r="C141" s="147"/>
-      <c r="D141" s="147"/>
-      <c r="E141" s="147"/>
-      <c r="F141" s="147"/>
-      <c r="G141" s="147"/>
-      <c r="H141" s="147"/>
-      <c r="I141" s="147"/>
-      <c r="J141" s="147"/>
-      <c r="K141" s="147"/>
-      <c r="L141" s="147"/>
-      <c r="M141" s="147"/>
+      <c r="B141" s="180"/>
+      <c r="C141" s="181"/>
+      <c r="D141" s="181"/>
+      <c r="E141" s="181"/>
+      <c r="F141" s="181"/>
+      <c r="G141" s="181"/>
+      <c r="H141" s="181"/>
+      <c r="I141" s="181"/>
+      <c r="J141" s="181"/>
+      <c r="K141" s="181"/>
+      <c r="L141" s="181"/>
+      <c r="M141" s="182"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B142" s="147"/>
-      <c r="C142" s="147"/>
-      <c r="D142" s="147"/>
-      <c r="E142" s="147"/>
-      <c r="F142" s="147"/>
-      <c r="G142" s="147"/>
-      <c r="H142" s="147"/>
-      <c r="I142" s="147"/>
-      <c r="J142" s="147"/>
-      <c r="K142" s="147"/>
-      <c r="L142" s="147"/>
-      <c r="M142" s="147"/>
+      <c r="B142" s="180"/>
+      <c r="C142" s="181"/>
+      <c r="D142" s="181"/>
+      <c r="E142" s="181"/>
+      <c r="F142" s="181"/>
+      <c r="G142" s="181"/>
+      <c r="H142" s="181"/>
+      <c r="I142" s="181"/>
+      <c r="J142" s="181"/>
+      <c r="K142" s="181"/>
+      <c r="L142" s="181"/>
+      <c r="M142" s="182"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B143" s="147"/>
-      <c r="C143" s="147"/>
-      <c r="D143" s="147"/>
-      <c r="E143" s="147"/>
-      <c r="F143" s="147"/>
-      <c r="G143" s="147"/>
-      <c r="H143" s="147"/>
-      <c r="I143" s="147"/>
-      <c r="J143" s="147"/>
-      <c r="K143" s="147"/>
-      <c r="L143" s="147"/>
-      <c r="M143" s="147"/>
+      <c r="B143" s="140"/>
+      <c r="C143" s="141"/>
+      <c r="D143" s="141"/>
+      <c r="E143" s="141"/>
+      <c r="F143" s="141"/>
+      <c r="G143" s="141"/>
+      <c r="H143" s="141"/>
+      <c r="I143" s="141"/>
+      <c r="J143" s="141"/>
+      <c r="K143" s="141"/>
+      <c r="L143" s="141"/>
+      <c r="M143" s="142"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="B35:M36"/>
+    <mergeCell ref="B38:M39"/>
+    <mergeCell ref="M44:N45"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="B101:M106"/>
+    <mergeCell ref="B95:M96"/>
     <mergeCell ref="H121:I121"/>
     <mergeCell ref="B129:M134"/>
     <mergeCell ref="B138:M143"/>
@@ -5384,30 +5802,9 @@
     <mergeCell ref="H118:I118"/>
     <mergeCell ref="H119:I119"/>
     <mergeCell ref="H120:I120"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="B101:M106"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="B35:M36"/>
-    <mergeCell ref="B38:M39"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <oleObjects>
@@ -5467,10 +5864,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z149"/>
+  <dimension ref="A1:Z157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="L124" sqref="L124:L131"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y83" sqref="Y83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5484,22 +5881,22 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
+        <v>87</v>
+      </c>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5507,7 +5904,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H2" s="5"/>
       <c r="Q2" s="1"/>
@@ -5519,11 +5916,11 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="71"/>
+      <c r="Z2" s="65"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -5538,13 +5935,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="161" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="162"/>
-      <c r="K4" s="163"/>
+        <v>36</v>
+      </c>
+      <c r="I4" s="160" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="161"/>
+      <c r="K4" s="162"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -5573,7 +5970,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -5594,267 +5991,262 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="62"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.2">
-      <c r="B8" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="164" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="108"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="100"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B9" s="187" t="s">
-        <v>135</v>
+      <c r="B9" s="128" t="s">
+        <v>128</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="134">
+      <c r="D9" s="118">
         <v>10</v>
       </c>
-      <c r="E9" s="134">
+      <c r="E9" s="118">
         <v>10</v>
       </c>
-      <c r="F9" s="134">
+      <c r="F9" s="118">
         <v>11</v>
       </c>
-      <c r="G9" s="134">
+      <c r="G9" s="118">
         <v>11</v>
       </c>
-      <c r="H9" s="134">
+      <c r="H9" s="118">
         <v>8</v>
       </c>
-      <c r="I9" s="134">
+      <c r="I9" s="118">
         <v>11</v>
       </c>
-      <c r="J9" s="134">
+      <c r="J9" s="118">
         <v>12</v>
       </c>
-      <c r="K9" s="134">
+      <c r="K9" s="118">
         <v>11</v>
       </c>
-      <c r="L9" s="29">
-        <f>AVERAGE(B9:I9)</f>
-        <v>9.8571428571428577</v>
+      <c r="L9" s="186">
+        <v>10.5</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="11"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="109"/>
+      <c r="T9" s="101"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="110"/>
+      <c r="X9" s="102"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B10" s="188" t="s">
-        <v>136</v>
+      <c r="B10" s="129" t="s">
+        <v>129</v>
       </c>
       <c r="C10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="134">
+      <c r="D10" s="118">
         <v>11</v>
       </c>
-      <c r="E10" s="134">
+      <c r="E10" s="118">
         <v>11</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="118">
         <v>13</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="118">
         <v>13</v>
       </c>
-      <c r="H10" s="134">
+      <c r="H10" s="118">
         <v>14</v>
       </c>
-      <c r="I10" s="134">
+      <c r="I10" s="118">
         <v>13</v>
       </c>
-      <c r="J10" s="134">
+      <c r="J10" s="118">
         <v>13</v>
       </c>
-      <c r="K10" s="134">
+      <c r="K10" s="118">
         <v>14</v>
       </c>
-      <c r="L10" s="29">
-        <f t="shared" ref="L10:L13" si="0">AVERAGE(B10:I10)</f>
-        <v>11.857142857142858</v>
+      <c r="L10" s="186">
+        <v>12.75</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="115"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="107"/>
       <c r="X10" s="49"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B11" s="188" t="s">
-        <v>137</v>
+      <c r="B11" s="129" t="s">
+        <v>130</v>
       </c>
       <c r="C11" s="4">
         <v>8</v>
       </c>
-      <c r="D11" s="134">
+      <c r="D11" s="118">
         <v>13</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="118">
         <v>12</v>
       </c>
-      <c r="F11" s="134">
+      <c r="F11" s="118">
         <v>15</v>
       </c>
-      <c r="G11" s="134">
+      <c r="G11" s="118">
         <v>16</v>
       </c>
-      <c r="H11" s="134">
+      <c r="H11" s="118">
         <v>15</v>
       </c>
-      <c r="I11" s="134">
+      <c r="I11" s="118">
         <v>15</v>
       </c>
-      <c r="J11" s="134">
+      <c r="J11" s="118">
         <v>15</v>
       </c>
-      <c r="K11" s="134">
+      <c r="K11" s="118">
         <v>14</v>
       </c>
-      <c r="L11" s="29">
-        <f t="shared" si="0"/>
-        <v>13.428571428571429</v>
+      <c r="L11" s="186">
+        <v>14.375</v>
       </c>
       <c r="Q11" s="1"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="115"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="107"/>
       <c r="X11" s="49"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B12" s="188" t="s">
-        <v>138</v>
+      <c r="B12" s="129" t="s">
+        <v>131</v>
       </c>
       <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="134">
+      <c r="D12" s="118">
         <v>15</v>
       </c>
-      <c r="E12" s="134">
+      <c r="E12" s="118">
         <v>15</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="118">
         <v>14</v>
       </c>
-      <c r="G12" s="134">
+      <c r="G12" s="118">
         <v>17</v>
       </c>
-      <c r="H12" s="134">
+      <c r="H12" s="118">
         <v>17</v>
       </c>
-      <c r="I12" s="134">
+      <c r="I12" s="118">
         <v>17</v>
       </c>
-      <c r="J12" s="134">
+      <c r="J12" s="118">
         <v>18</v>
       </c>
-      <c r="K12" s="134">
+      <c r="K12" s="118">
         <v>17</v>
       </c>
-      <c r="L12" s="29">
-        <f t="shared" si="0"/>
-        <v>14.714285714285714</v>
-      </c>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="69"/>
+      <c r="L12" s="186">
+        <v>16.25</v>
+      </c>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="63"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="188" t="s">
-        <v>139</v>
+      <c r="B13" s="129" t="s">
+        <v>132</v>
       </c>
       <c r="C13" s="4">
         <v>8</v>
       </c>
-      <c r="D13" s="134">
+      <c r="D13" s="118">
         <v>13</v>
       </c>
-      <c r="E13" s="134">
+      <c r="E13" s="118">
         <v>15</v>
       </c>
-      <c r="F13" s="134">
+      <c r="F13" s="118">
         <v>18</v>
       </c>
-      <c r="G13" s="134">
+      <c r="G13" s="118">
         <v>17</v>
       </c>
-      <c r="H13" s="134">
+      <c r="H13" s="118">
         <v>17</v>
       </c>
-      <c r="I13" s="134">
+      <c r="I13" s="118">
         <v>17</v>
       </c>
-      <c r="J13" s="134">
+      <c r="J13" s="118">
         <v>18</v>
       </c>
-      <c r="K13" s="137">
+      <c r="K13" s="121">
         <v>18</v>
       </c>
-      <c r="L13" s="29">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="69"/>
+      <c r="L13" s="186">
+        <v>16.625</v>
+      </c>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="63"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -5864,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -5878,130 +6270,138 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="165" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="166"/>
-      <c r="D46" s="166"/>
-      <c r="E46" s="166"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="166"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="166"/>
-      <c r="L46" s="166"/>
-      <c r="M46" s="167"/>
+      <c r="B46" s="164" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="165"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="165"/>
+      <c r="K46" s="165"/>
+      <c r="L46" s="165"/>
+      <c r="M46" s="166"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="168"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="169"/>
-      <c r="G47" s="169"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="169"/>
-      <c r="J47" s="169"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="169"/>
-      <c r="M47" s="170"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="168"/>
+      <c r="L47" s="168"/>
+      <c r="M47" s="169"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B49" s="165"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="166"/>
-      <c r="L49" s="166"/>
-      <c r="M49" s="167"/>
+      <c r="B49" s="164" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
+      <c r="I49" s="165"/>
+      <c r="J49" s="165"/>
+      <c r="K49" s="165"/>
+      <c r="L49" s="165"/>
+      <c r="M49" s="166"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B50" s="168"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="169"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="169"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="169"/>
-      <c r="M50" s="170"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="168"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="168"/>
+      <c r="L50" s="168"/>
+      <c r="M50" s="169"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
       <c r="L53" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M55" s="161"/>
-      <c r="N55" s="163"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M55" s="138" t="s">
+        <v>172</v>
+      </c>
+      <c r="N55" s="138"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M56" s="181"/>
+      <c r="N56" s="181"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B57" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B58" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B59" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B61" s="35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C61" s="37">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="57">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="F61" s="51">
+        <v>32</v>
       </c>
       <c r="I61" s="38">
         <f>TINV(0.05,F61)</f>
-        <v>2.0301079282503438</v>
+        <v>2.0369333434601011</v>
       </c>
       <c r="J61" s="24"/>
       <c r="K61" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="57">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="L61" s="51">
+        <v>8</v>
       </c>
       <c r="N61" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O61" s="39">
         <f>I61*SQRT(2*C61/L61)</f>
-        <v>2.7983106655007615</v>
+        <v>1.0184666717300506</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
@@ -6009,12 +6409,12 @@
     </row>
     <row r="63" spans="1:21" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B63" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="57">
+        <v>18</v>
+      </c>
+      <c r="J63" s="51">
         <v>0.99512449999999997</v>
       </c>
       <c r="R63" s="1"/>
@@ -6026,999 +6426,1686 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="S64" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="T64" s="101"/>
-      <c r="U64" s="101"/>
+      <c r="S64" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="T64" s="93"/>
+      <c r="U64" s="93"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N65" s="49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="175" t="s">
-        <v>106</v>
-      </c>
-      <c r="T65" s="101"/>
+      <c r="S65" s="124" t="s">
+        <v>102</v>
+      </c>
+      <c r="T65" s="93"/>
     </row>
     <row r="66" spans="1:22" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E66" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" s="153" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" s="154"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
+        <v>11</v>
+      </c>
+      <c r="F66" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G66" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="171"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
       <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="12" t="s">
+      <c r="O66" s="12">
+        <v>1</v>
+      </c>
+      <c r="P66" s="12">
         <v>2</v>
       </c>
-      <c r="R66" s="48"/>
-      <c r="S66" s="175" t="s">
-        <v>107</v>
+      <c r="Q66" s="12">
+        <v>3</v>
+      </c>
+      <c r="R66" s="12">
+        <v>4</v>
+      </c>
+      <c r="S66" s="124" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="B67" s="43"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="155"/>
-      <c r="H67" s="156"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="104"/>
-      <c r="N67" s="14"/>
+      <c r="B67" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="186">
+        <v>10.5</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="186">
+        <v>12.75</v>
+      </c>
+      <c r="F67" s="47">
+        <f>E67-C67</f>
+        <v>2.25</v>
+      </c>
+      <c r="G67" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" s="173"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="96"/>
+      <c r="N67" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="O67" s="17"/>
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="175" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="B68" s="40"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="157"/>
-      <c r="H68" s="158"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="104"/>
-      <c r="N68" s="14"/>
+      <c r="R67" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="S67" s="124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="186">
+        <v>10.5</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="186">
+        <v>14.375</v>
+      </c>
+      <c r="F68" s="47">
+        <f t="shared" ref="F68:F76" si="0">E68-C68</f>
+        <v>3.875</v>
+      </c>
+      <c r="G68" s="158" t="s">
+        <v>150</v>
+      </c>
+      <c r="H68" s="159"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="N68" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="O68" s="17"/>
       <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="175" t="s">
-        <v>109</v>
+      <c r="Q68" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="R68" s="14"/>
+      <c r="S68" s="124" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="B69" s="40"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="160"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="104"/>
-      <c r="N69" s="14"/>
+      <c r="B69" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="186">
+        <v>10.5</v>
+      </c>
+      <c r="D69" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="186">
+        <v>16.25</v>
+      </c>
+      <c r="F69" s="47">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="G69" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" s="157"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
+      <c r="N69" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="O69" s="17"/>
-      <c r="P69" s="14"/>
+      <c r="P69" s="14" t="s">
+        <v>157</v>
+      </c>
       <c r="Q69" s="14"/>
-      <c r="R69" s="48"/>
-      <c r="S69" s="175" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="42"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="158"/>
-      <c r="I70" s="104"/>
-      <c r="J70" s="104"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="17"/>
+      <c r="R69" s="14"/>
+      <c r="S69" s="124" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B70" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="186">
+        <v>10.5</v>
+      </c>
+      <c r="D70" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="186">
+        <v>16.625</v>
+      </c>
+      <c r="F70" s="47">
+        <f t="shared" si="0"/>
+        <v>6.125</v>
+      </c>
+      <c r="G70" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" s="157"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="96"/>
+      <c r="N70" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O70" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="177" t="s">
-        <v>111</v>
-      </c>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="9"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="159"/>
-      <c r="H71" s="160"/>
-      <c r="I71" s="104"/>
-      <c r="J71" s="104"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="9"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="158"/>
-      <c r="I72" s="104"/>
-      <c r="J72" s="104"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="48"/>
-      <c r="T72" s="98"/>
-      <c r="U72" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="V72" s="100"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="S73" s="48"/>
-      <c r="T73" s="98"/>
-      <c r="U73" s="100"/>
-      <c r="V73" s="100"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>4</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N74" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="S74" s="18"/>
-      <c r="T74" s="99" t="s">
-        <v>124</v>
-      </c>
+      <c r="R70" s="14"/>
+      <c r="S70" s="124"/>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="186">
+        <v>12.75</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="186">
+        <v>14.375</v>
+      </c>
+      <c r="F71" s="47">
+        <f t="shared" si="0"/>
+        <v>1.625</v>
+      </c>
+      <c r="G71" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71" s="157"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="96"/>
+      <c r="N71" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O71" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="124"/>
+    </row>
+    <row r="72" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="186">
+        <v>12.75</v>
+      </c>
+      <c r="D72" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="186">
+        <v>16.25</v>
+      </c>
+      <c r="F72" s="47">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="G72" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="H72" s="157"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="96"/>
+      <c r="N72" s="184"/>
+      <c r="O72" s="185"/>
+      <c r="P72" s="184"/>
+      <c r="Q72" s="184"/>
+      <c r="R72" s="48"/>
+      <c r="S72" s="124"/>
+    </row>
+    <row r="73" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B73" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="186">
+        <v>12.75</v>
+      </c>
+      <c r="D73" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="186">
+        <v>16.625</v>
+      </c>
+      <c r="F73" s="47">
+        <f t="shared" si="0"/>
+        <v>3.875</v>
+      </c>
+      <c r="G73" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" s="157"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="96"/>
+      <c r="N73" s="184"/>
+      <c r="O73" s="185"/>
+      <c r="P73" s="184"/>
+      <c r="Q73" s="184"/>
+      <c r="R73" s="48"/>
+      <c r="S73" s="124"/>
+    </row>
+    <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="186">
+        <v>14.375</v>
+      </c>
+      <c r="D74" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74" s="186">
+        <v>16.25</v>
+      </c>
+      <c r="F74" s="47">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="G74" s="158" t="s">
+        <v>150</v>
+      </c>
+      <c r="H74" s="159"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="96"/>
+      <c r="N74" s="184"/>
+      <c r="O74" s="185"/>
+      <c r="P74" s="184"/>
+      <c r="Q74" s="184"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B75" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E75" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" s="171" t="s">
-        <v>36</v>
-      </c>
-      <c r="I75" s="171"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="S75" s="48"/>
-      <c r="T75" s="98" t="s">
-        <v>124</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C75" s="186">
+        <v>14.375</v>
+      </c>
+      <c r="D75" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" s="186">
+        <v>16.625</v>
+      </c>
+      <c r="F75" s="47">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="G75" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="H75" s="157"/>
+      <c r="I75" s="96"/>
+      <c r="J75" s="96"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
     </row>
-    <row r="76" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="B76" s="43"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="173"/>
-      <c r="I76" s="173"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-    </row>
-    <row r="77" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="B77" s="40"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="173"/>
-      <c r="I77" s="173"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="100" t="s">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B76" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="186">
+        <v>16.25</v>
+      </c>
+      <c r="D76" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="186">
+        <v>16.625</v>
+      </c>
+      <c r="F76" s="47">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="G76" s="158" t="s">
+        <v>151</v>
+      </c>
+      <c r="H76" s="159"/>
+      <c r="I76" s="96"/>
+      <c r="J76" s="96"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="124" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="92"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="J77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="S77" s="48"/>
+      <c r="T77" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="U77" s="92"/>
+      <c r="V77" s="92"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="S78" s="18"/>
+      <c r="T78" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B79" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" s="155"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12">
+        <v>1</v>
+      </c>
+      <c r="P79" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q79" s="12">
+        <v>3</v>
+      </c>
+      <c r="R79" s="12">
+        <v>4</v>
+      </c>
+      <c r="S79" s="48"/>
+      <c r="T79" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B80" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="186">
+        <v>10.5</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" s="186">
+        <v>12.75</v>
+      </c>
+      <c r="F80" s="47">
+        <f>E80-C80</f>
+        <v>2.25</v>
+      </c>
+      <c r="G80" s="13">
+        <v>5.6099999999999998E-4</v>
+      </c>
+      <c r="H80" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="I80" s="153"/>
+      <c r="N80" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O80" s="17"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="S80" s="1"/>
+      <c r="T80" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="2:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="186">
+        <v>10.5</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E81" s="186">
+        <v>14.375</v>
+      </c>
+      <c r="F81" s="47">
+        <f t="shared" ref="F81:F89" si="1">E81-C81</f>
+        <v>3.875</v>
+      </c>
+      <c r="G81" s="16">
+        <v>0</v>
+      </c>
+      <c r="H81" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="I81" s="153"/>
+      <c r="N81" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O81" s="17"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="R81" s="17"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="124" t="s">
+        <v>181</v>
+      </c>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+    </row>
+    <row r="82" spans="2:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B82" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="186">
+        <v>10.5</v>
+      </c>
+      <c r="D82" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="E82" s="186">
+        <v>16.25</v>
+      </c>
+      <c r="F82" s="47">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="G82" s="16">
+        <v>0</v>
+      </c>
+      <c r="H82" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="I82" s="173"/>
+      <c r="N82" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O82" s="17"/>
+      <c r="P82" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="126" t="s">
+        <v>182</v>
+      </c>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="2:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B83" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="186">
+        <v>10.5</v>
+      </c>
+      <c r="D83" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="186">
+        <v>16.625</v>
+      </c>
+      <c r="F83" s="47">
+        <f t="shared" si="1"/>
+        <v>6.125</v>
+      </c>
+      <c r="G83" s="16">
+        <v>0</v>
+      </c>
+      <c r="H83" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="I83" s="173"/>
+      <c r="N83" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O83" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="92"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+    </row>
+    <row r="84" spans="2:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="186">
+        <v>12.75</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" s="186">
+        <v>14.375</v>
+      </c>
+      <c r="F84" s="47">
+        <f t="shared" si="1"/>
+        <v>1.625</v>
+      </c>
+      <c r="G84" s="16">
+        <v>1.7578E-2</v>
+      </c>
+      <c r="H84" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="I84" s="173"/>
+      <c r="N84" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="92"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+    </row>
+    <row r="85" spans="2:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B85" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="186">
+        <v>12.75</v>
+      </c>
+      <c r="D85" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="186">
+        <v>16.25</v>
+      </c>
+      <c r="F85" s="47">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="G85" s="16">
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="H85" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="I85" s="173"/>
+      <c r="N85" s="184"/>
+      <c r="O85" s="185"/>
+      <c r="P85" s="184"/>
+      <c r="Q85" s="184"/>
+      <c r="R85" s="185"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="92"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+    </row>
+    <row r="86" spans="2:22" ht="15" x14ac:dyDescent="0.2">
+      <c r="B86" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="186">
+        <v>12.75</v>
+      </c>
+      <c r="D86" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="186">
+        <v>16.625</v>
+      </c>
+      <c r="F86" s="47">
+        <f t="shared" si="1"/>
+        <v>3.875</v>
+      </c>
+      <c r="G86" s="13">
+        <v>0</v>
+      </c>
+      <c r="H86" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="I86" s="153"/>
+      <c r="N86" s="184"/>
+      <c r="O86" s="185"/>
+      <c r="P86" s="184"/>
+      <c r="Q86" s="184"/>
+      <c r="R86" s="185"/>
+    </row>
+    <row r="87" spans="2:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="186">
+        <v>14.375</v>
+      </c>
+      <c r="D87" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="186">
+        <v>16.25</v>
+      </c>
+      <c r="F87" s="47">
+        <f t="shared" si="1"/>
+        <v>1.875</v>
+      </c>
+      <c r="G87" s="16">
+        <v>4.6677999999999997E-3</v>
+      </c>
+      <c r="H87" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="I87" s="153"/>
+      <c r="N87" s="184"/>
+      <c r="O87" s="185"/>
+      <c r="P87" s="184"/>
+      <c r="Q87" s="184"/>
+      <c r="R87" s="185"/>
+    </row>
+    <row r="88" spans="2:22" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="186">
+        <v>14.375</v>
+      </c>
+      <c r="D88" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="186">
+        <v>16.625</v>
+      </c>
+      <c r="F88" s="47">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="G88" s="13">
+        <v>5.6099999999999998E-4</v>
+      </c>
+      <c r="H88" s="153" t="s">
+        <v>150</v>
+      </c>
+      <c r="I88" s="153"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B89" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="186">
+        <v>16.25</v>
+      </c>
+      <c r="D89" s="122" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="186">
+        <v>16.625</v>
+      </c>
+      <c r="F89" s="47">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="G89" s="13">
+        <v>0.93803130000000001</v>
+      </c>
+      <c r="H89" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="I89" s="153"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>5</v>
+      </c>
+      <c r="B106" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="54"/>
+      <c r="L107" s="54"/>
+      <c r="M107" s="54"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B109" s="175" t="s">
+        <v>173</v>
+      </c>
+      <c r="C109" s="174"/>
+      <c r="D109" s="174"/>
+      <c r="E109" s="174"/>
+      <c r="F109" s="174"/>
+      <c r="G109" s="174"/>
+      <c r="H109" s="174"/>
+      <c r="I109" s="174"/>
+      <c r="J109" s="174"/>
+      <c r="K109" s="174"/>
+      <c r="L109" s="174"/>
+      <c r="M109" s="176"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B110" s="177"/>
+      <c r="C110" s="178"/>
+      <c r="D110" s="178"/>
+      <c r="E110" s="178"/>
+      <c r="F110" s="178"/>
+      <c r="G110" s="178"/>
+      <c r="H110" s="178"/>
+      <c r="I110" s="178"/>
+      <c r="J110" s="178"/>
+      <c r="K110" s="178"/>
+      <c r="L110" s="178"/>
+      <c r="M110" s="179"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>6</v>
+      </c>
+      <c r="B112" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="54"/>
+      <c r="L112" s="54"/>
+      <c r="M112" s="54"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B113" s="54"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="54"/>
+      <c r="M113" s="54"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B115" s="137" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="138"/>
+      <c r="D115" s="138"/>
+      <c r="E115" s="138"/>
+      <c r="F115" s="138"/>
+      <c r="G115" s="138"/>
+      <c r="H115" s="138"/>
+      <c r="I115" s="138"/>
+      <c r="J115" s="138"/>
+      <c r="K115" s="138"/>
+      <c r="L115" s="138"/>
+      <c r="M115" s="139"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B116" s="180"/>
+      <c r="C116" s="181"/>
+      <c r="D116" s="181"/>
+      <c r="E116" s="181"/>
+      <c r="F116" s="181"/>
+      <c r="G116" s="181"/>
+      <c r="H116" s="181"/>
+      <c r="I116" s="181"/>
+      <c r="J116" s="181"/>
+      <c r="K116" s="181"/>
+      <c r="L116" s="181"/>
+      <c r="M116" s="182"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B117" s="180"/>
+      <c r="C117" s="181"/>
+      <c r="D117" s="181"/>
+      <c r="E117" s="181"/>
+      <c r="F117" s="181"/>
+      <c r="G117" s="181"/>
+      <c r="H117" s="181"/>
+      <c r="I117" s="181"/>
+      <c r="J117" s="181"/>
+      <c r="K117" s="181"/>
+      <c r="L117" s="181"/>
+      <c r="M117" s="182"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B118" s="180"/>
+      <c r="C118" s="181"/>
+      <c r="D118" s="181"/>
+      <c r="E118" s="181"/>
+      <c r="F118" s="181"/>
+      <c r="G118" s="181"/>
+      <c r="H118" s="181"/>
+      <c r="I118" s="181"/>
+      <c r="J118" s="181"/>
+      <c r="K118" s="181"/>
+      <c r="L118" s="181"/>
+      <c r="M118" s="182"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B119" s="180"/>
+      <c r="C119" s="181"/>
+      <c r="D119" s="181"/>
+      <c r="E119" s="181"/>
+      <c r="F119" s="181"/>
+      <c r="G119" s="181"/>
+      <c r="H119" s="181"/>
+      <c r="I119" s="181"/>
+      <c r="J119" s="181"/>
+      <c r="K119" s="181"/>
+      <c r="L119" s="181"/>
+      <c r="M119" s="182"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B120" s="140"/>
+      <c r="C120" s="141"/>
+      <c r="D120" s="141"/>
+      <c r="E120" s="141"/>
+      <c r="F120" s="141"/>
+      <c r="G120" s="141"/>
+      <c r="H120" s="141"/>
+      <c r="I120" s="141"/>
+      <c r="J120" s="141"/>
+      <c r="K120" s="141"/>
+      <c r="L120" s="141"/>
+      <c r="M120" s="142"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L123" s="93"/>
+      <c r="M123" s="93"/>
+      <c r="N123" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="O123" s="93"/>
+      <c r="P123" s="93"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>78</v>
+      </c>
+      <c r="F124" s="94">
+        <v>5.4789000000000003</v>
+      </c>
+      <c r="L124" s="124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L125" s="123"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>79</v>
+      </c>
+      <c r="F126" s="188">
+        <v>6.1639999999999998E-6</v>
+      </c>
+      <c r="L126" s="124" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L127" s="124" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B128" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L128" s="126" t="s">
+        <v>136</v>
+      </c>
+      <c r="M128" s="20"/>
+    </row>
+    <row r="129" spans="1:20" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F129" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="G129" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H129" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="I129" s="155"/>
+      <c r="L129" s="93"/>
+      <c r="M129" s="20"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B130" s="186" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" s="187">
+        <v>11</v>
+      </c>
+      <c r="D130" s="186" t="s">
+        <v>129</v>
+      </c>
+      <c r="E130" s="186">
+        <v>13</v>
+      </c>
+      <c r="F130" s="186">
+        <f>E130-C130</f>
+        <v>2</v>
+      </c>
+      <c r="G130" s="186">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="H130" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="I130" s="190"/>
+      <c r="L130" s="93"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B131" s="186" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="187">
+        <v>11</v>
+      </c>
+      <c r="D131" s="186" t="s">
+        <v>130</v>
+      </c>
+      <c r="E131" s="186">
+        <v>15</v>
+      </c>
+      <c r="F131" s="186">
+        <f t="shared" ref="F131:F139" si="2">E131-C131</f>
+        <v>4</v>
+      </c>
+      <c r="G131" s="186">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H131" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="I131" s="190"/>
+      <c r="L131" s="93"/>
+      <c r="M131" s="93"/>
+      <c r="N131" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="O131" s="93"/>
+      <c r="P131" s="93"/>
+      <c r="Q131" s="93"/>
+      <c r="R131" s="93"/>
+      <c r="S131" s="93"/>
+      <c r="T131" s="93"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B132" s="186" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="187">
+        <v>11</v>
+      </c>
+      <c r="D132" s="186" t="s">
+        <v>131</v>
+      </c>
+      <c r="E132" s="186">
+        <v>17</v>
+      </c>
+      <c r="F132" s="186">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G132" s="186">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H132" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="I132" s="190"/>
+      <c r="Q132" s="79"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B133" s="186" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="187">
+        <v>11</v>
+      </c>
+      <c r="D133" s="186" t="s">
+        <v>132</v>
+      </c>
+      <c r="E133" s="186">
+        <v>17</v>
+      </c>
+      <c r="F133" s="186">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G133" s="186">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H133" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="I133" s="190"/>
+      <c r="L133" s="124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B134" s="186" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" s="187">
+        <v>13</v>
+      </c>
+      <c r="D134" s="186" t="s">
+        <v>130</v>
+      </c>
+      <c r="E134" s="186">
+        <v>15</v>
+      </c>
+      <c r="F134" s="186">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G134" s="186">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="H134" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="I134" s="190"/>
+      <c r="L134" s="124" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B135" s="186" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" s="187">
+        <v>13</v>
+      </c>
+      <c r="D135" s="186" t="s">
+        <v>131</v>
+      </c>
+      <c r="E135" s="186">
+        <v>17</v>
+      </c>
+      <c r="F135" s="186">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G135" s="186">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H135" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="I135" s="190"/>
+      <c r="L135" s="124" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B136" s="186" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="187">
+        <v>13</v>
+      </c>
+      <c r="D136" s="186" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" s="186">
+        <v>17</v>
+      </c>
+      <c r="F136" s="186">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G136" s="186">
+        <v>6.3E-3</v>
+      </c>
+      <c r="H136" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="I136" s="190"/>
+      <c r="L136" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-    </row>
-    <row r="78" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="B78" s="40"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="173"/>
-      <c r="I78" s="173"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
-      <c r="T78" t="s">
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B137" s="186" t="s">
+        <v>130</v>
+      </c>
+      <c r="C137" s="187">
+        <v>15</v>
+      </c>
+      <c r="D137" s="186" t="s">
+        <v>131</v>
+      </c>
+      <c r="E137" s="186">
+        <v>17</v>
+      </c>
+      <c r="F137" s="186">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G137" s="186">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="H137" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="I137" s="190"/>
+      <c r="L137" s="124" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="42"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="173"/>
-      <c r="I79" s="173"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="14"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B80" s="9"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="173"/>
-      <c r="I80" s="173"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="9"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="173"/>
-      <c r="I81" s="173"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C84" s="1"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C85" s="1"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C86" s="1"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C87" s="1"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C88" s="1"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
-        <v>5</v>
-      </c>
-      <c r="B98" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="60"/>
-      <c r="J98" s="60"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="60"/>
-      <c r="M98" s="60"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="60"/>
-      <c r="H99" s="60"/>
-      <c r="I99" s="60"/>
-      <c r="J99" s="60"/>
-      <c r="K99" s="60"/>
-      <c r="L99" s="60"/>
-      <c r="M99" s="60"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B101" s="51"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
-      <c r="H101" s="52"/>
-      <c r="I101" s="52"/>
-      <c r="J101" s="52"/>
-      <c r="K101" s="52"/>
-      <c r="L101" s="52"/>
-      <c r="M101" s="53"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B102" s="54"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="55"/>
-      <c r="K102" s="55"/>
-      <c r="L102" s="55"/>
-      <c r="M102" s="56"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>6</v>
-      </c>
-      <c r="B104" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="60"/>
-      <c r="J104" s="60"/>
-      <c r="K104" s="60"/>
-      <c r="L104" s="60"/>
-      <c r="M104" s="60"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B105" s="60"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="60"/>
-      <c r="L105" s="60"/>
-      <c r="M105" s="60"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B107" s="147"/>
-      <c r="C107" s="147"/>
-      <c r="D107" s="147"/>
-      <c r="E107" s="147"/>
-      <c r="F107" s="147"/>
-      <c r="G107" s="147"/>
-      <c r="H107" s="147"/>
-      <c r="I107" s="147"/>
-      <c r="J107" s="147"/>
-      <c r="K107" s="147"/>
-      <c r="L107" s="147"/>
-      <c r="M107" s="147"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B108" s="147"/>
-      <c r="C108" s="147"/>
-      <c r="D108" s="147"/>
-      <c r="E108" s="147"/>
-      <c r="F108" s="147"/>
-      <c r="G108" s="147"/>
-      <c r="H108" s="147"/>
-      <c r="I108" s="147"/>
-      <c r="J108" s="147"/>
-      <c r="K108" s="147"/>
-      <c r="L108" s="147"/>
-      <c r="M108" s="147"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B109" s="147"/>
-      <c r="C109" s="147"/>
-      <c r="D109" s="147"/>
-      <c r="E109" s="147"/>
-      <c r="F109" s="147"/>
-      <c r="G109" s="147"/>
-      <c r="H109" s="147"/>
-      <c r="I109" s="147"/>
-      <c r="J109" s="147"/>
-      <c r="K109" s="147"/>
-      <c r="L109" s="147"/>
-      <c r="M109" s="147"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B110" s="147"/>
-      <c r="C110" s="147"/>
-      <c r="D110" s="147"/>
-      <c r="E110" s="147"/>
-      <c r="F110" s="147"/>
-      <c r="G110" s="147"/>
-      <c r="H110" s="147"/>
-      <c r="I110" s="147"/>
-      <c r="J110" s="147"/>
-      <c r="K110" s="147"/>
-      <c r="L110" s="147"/>
-      <c r="M110" s="147"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B111" s="147"/>
-      <c r="C111" s="147"/>
-      <c r="D111" s="147"/>
-      <c r="E111" s="147"/>
-      <c r="F111" s="147"/>
-      <c r="G111" s="147"/>
-      <c r="H111" s="147"/>
-      <c r="I111" s="147"/>
-      <c r="J111" s="147"/>
-      <c r="K111" s="147"/>
-      <c r="L111" s="147"/>
-      <c r="M111" s="147"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B112" s="147"/>
-      <c r="C112" s="147"/>
-      <c r="D112" s="147"/>
-      <c r="E112" s="147"/>
-      <c r="F112" s="147"/>
-      <c r="G112" s="147"/>
-      <c r="H112" s="147"/>
-      <c r="I112" s="147"/>
-      <c r="J112" s="147"/>
-      <c r="K112" s="147"/>
-      <c r="L112" s="147"/>
-      <c r="M112" s="147"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>7</v>
-      </c>
-      <c r="B114" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L115" s="101"/>
-      <c r="M115" s="101"/>
-      <c r="N115" s="101" t="s">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B138" s="186" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" s="187">
+        <v>15</v>
+      </c>
+      <c r="D138" s="186" t="s">
+        <v>132</v>
+      </c>
+      <c r="E138" s="186">
+        <v>17</v>
+      </c>
+      <c r="F138" s="186">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G138" s="186">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H138" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="I138" s="190"/>
+      <c r="L138" s="125"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B139" s="186" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139" s="187">
+        <v>17</v>
+      </c>
+      <c r="D139" s="186" t="s">
+        <v>132</v>
+      </c>
+      <c r="E139" s="186">
+        <v>17</v>
+      </c>
+      <c r="F139" s="186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="186">
+        <v>0.43759999999999999</v>
+      </c>
+      <c r="H139" s="189" t="s">
+        <v>151</v>
+      </c>
+      <c r="I139" s="190"/>
+      <c r="L139" s="126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A141" s="3"/>
+      <c r="B141" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B143" s="133" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="133"/>
+      <c r="D143" s="133"/>
+      <c r="E143" s="133"/>
+      <c r="F143" s="133"/>
+      <c r="G143" s="133"/>
+      <c r="H143" s="133"/>
+      <c r="I143" s="133"/>
+      <c r="J143" s="133"/>
+      <c r="K143" s="133"/>
+      <c r="L143" s="133"/>
+      <c r="M143" s="133"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B144" s="133"/>
+      <c r="C144" s="133"/>
+      <c r="D144" s="133"/>
+      <c r="E144" s="133"/>
+      <c r="F144" s="133"/>
+      <c r="G144" s="133"/>
+      <c r="H144" s="133"/>
+      <c r="I144" s="133"/>
+      <c r="J144" s="133"/>
+      <c r="K144" s="133"/>
+      <c r="L144" s="133"/>
+      <c r="M144" s="133"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B145" s="133"/>
+      <c r="C145" s="133"/>
+      <c r="D145" s="133"/>
+      <c r="E145" s="133"/>
+      <c r="F145" s="133"/>
+      <c r="G145" s="133"/>
+      <c r="H145" s="133"/>
+      <c r="I145" s="133"/>
+      <c r="J145" s="133"/>
+      <c r="K145" s="133"/>
+      <c r="L145" s="133"/>
+      <c r="M145" s="133"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B146" s="133"/>
+      <c r="C146" s="133"/>
+      <c r="D146" s="133"/>
+      <c r="E146" s="133"/>
+      <c r="F146" s="133"/>
+      <c r="G146" s="133"/>
+      <c r="H146" s="133"/>
+      <c r="I146" s="133"/>
+      <c r="J146" s="133"/>
+      <c r="K146" s="133"/>
+      <c r="L146" s="133"/>
+      <c r="M146" s="133"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B147" s="133"/>
+      <c r="C147" s="133"/>
+      <c r="D147" s="133"/>
+      <c r="E147" s="133"/>
+      <c r="F147" s="133"/>
+      <c r="G147" s="133"/>
+      <c r="H147" s="133"/>
+      <c r="I147" s="133"/>
+      <c r="J147" s="133"/>
+      <c r="K147" s="133"/>
+      <c r="L147" s="133"/>
+      <c r="M147" s="133"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B148" s="133"/>
+      <c r="C148" s="133"/>
+      <c r="D148" s="133"/>
+      <c r="E148" s="133"/>
+      <c r="F148" s="133"/>
+      <c r="G148" s="133"/>
+      <c r="H148" s="133"/>
+      <c r="I148" s="133"/>
+      <c r="J148" s="133"/>
+      <c r="K148" s="133"/>
+      <c r="L148" s="133"/>
+      <c r="M148" s="133"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
         <v>8</v>
       </c>
-      <c r="O115" s="101"/>
-      <c r="P115" s="101"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>80</v>
-      </c>
-      <c r="F116" s="102"/>
-      <c r="L116" s="175" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L117" s="174"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>81</v>
-      </c>
-      <c r="F118" s="102"/>
-      <c r="L118" s="175" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L119" s="175" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B120" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L120" s="177" t="s">
-        <v>145</v>
-      </c>
-      <c r="M120" s="20"/>
-    </row>
-    <row r="121" spans="1:20" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C121" s="46" t="s">
+      <c r="B150" t="s">
         <v>84</v>
       </c>
-      <c r="D121" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E121" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="F121" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="G121" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="H121" s="171" t="s">
-        <v>36</v>
-      </c>
-      <c r="I121" s="171"/>
-      <c r="L121" s="101"/>
-      <c r="M121" s="20"/>
-    </row>
-    <row r="122" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="B122" s="43"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="46"/>
-      <c r="H122" s="173"/>
-      <c r="I122" s="173"/>
-      <c r="L122" s="101"/>
-    </row>
-    <row r="123" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="B123" s="40"/>
-      <c r="C123" s="41"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="46"/>
-      <c r="H123" s="173"/>
-      <c r="I123" s="173"/>
-      <c r="L123" s="101"/>
-      <c r="M123" s="101"/>
-      <c r="N123" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="O123" s="101"/>
-      <c r="P123" s="101"/>
-      <c r="Q123" s="101"/>
-      <c r="R123" s="101"/>
-      <c r="S123" s="101"/>
-      <c r="T123" s="101"/>
-    </row>
-    <row r="124" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="B124" s="40"/>
-      <c r="C124" s="41"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="173"/>
-      <c r="I124" s="173"/>
-      <c r="Q124" s="85"/>
-    </row>
-    <row r="125" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B125" s="42"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="173"/>
-      <c r="I125" s="173"/>
-      <c r="L125" s="175" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B126" s="9"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="46"/>
-      <c r="H126" s="173"/>
-      <c r="I126" s="173"/>
-      <c r="L126" s="175" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B127" s="9"/>
-      <c r="C127" s="41"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="173"/>
-      <c r="I127" s="173"/>
-      <c r="L127" s="175" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="L128" s="175" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L129" s="175" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L130" s="176"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L131" s="177" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A133" s="3"/>
-      <c r="B133" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B135" s="147"/>
-      <c r="C135" s="147"/>
-      <c r="D135" s="147"/>
-      <c r="E135" s="147"/>
-      <c r="F135" s="147"/>
-      <c r="G135" s="147"/>
-      <c r="H135" s="147"/>
-      <c r="I135" s="147"/>
-      <c r="J135" s="147"/>
-      <c r="K135" s="147"/>
-      <c r="L135" s="147"/>
-      <c r="M135" s="147"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B136" s="147"/>
-      <c r="C136" s="147"/>
-      <c r="D136" s="147"/>
-      <c r="E136" s="147"/>
-      <c r="F136" s="147"/>
-      <c r="G136" s="147"/>
-      <c r="H136" s="147"/>
-      <c r="I136" s="147"/>
-      <c r="J136" s="147"/>
-      <c r="K136" s="147"/>
-      <c r="L136" s="147"/>
-      <c r="M136" s="147"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B137" s="147"/>
-      <c r="C137" s="147"/>
-      <c r="D137" s="147"/>
-      <c r="E137" s="147"/>
-      <c r="F137" s="147"/>
-      <c r="G137" s="147"/>
-      <c r="H137" s="147"/>
-      <c r="I137" s="147"/>
-      <c r="J137" s="147"/>
-      <c r="K137" s="147"/>
-      <c r="L137" s="147"/>
-      <c r="M137" s="147"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B138" s="147"/>
-      <c r="C138" s="147"/>
-      <c r="D138" s="147"/>
-      <c r="E138" s="147"/>
-      <c r="F138" s="147"/>
-      <c r="G138" s="147"/>
-      <c r="H138" s="147"/>
-      <c r="I138" s="147"/>
-      <c r="J138" s="147"/>
-      <c r="K138" s="147"/>
-      <c r="L138" s="147"/>
-      <c r="M138" s="147"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B139" s="147"/>
-      <c r="C139" s="147"/>
-      <c r="D139" s="147"/>
-      <c r="E139" s="147"/>
-      <c r="F139" s="147"/>
-      <c r="G139" s="147"/>
-      <c r="H139" s="147"/>
-      <c r="I139" s="147"/>
-      <c r="J139" s="147"/>
-      <c r="K139" s="147"/>
-      <c r="L139" s="147"/>
-      <c r="M139" s="147"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B140" s="147"/>
-      <c r="C140" s="147"/>
-      <c r="D140" s="147"/>
-      <c r="E140" s="147"/>
-      <c r="F140" s="147"/>
-      <c r="G140" s="147"/>
-      <c r="H140" s="147"/>
-      <c r="I140" s="147"/>
-      <c r="J140" s="147"/>
-      <c r="K140" s="147"/>
-      <c r="L140" s="147"/>
-      <c r="M140" s="147"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
-        <v>8</v>
-      </c>
-      <c r="B142" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B144" s="147"/>
-      <c r="C144" s="147"/>
-      <c r="D144" s="147"/>
-      <c r="E144" s="147"/>
-      <c r="F144" s="147"/>
-      <c r="G144" s="147"/>
-      <c r="H144" s="147"/>
-      <c r="I144" s="147"/>
-      <c r="J144" s="147"/>
-      <c r="K144" s="147"/>
-      <c r="L144" s="147"/>
-      <c r="M144" s="147"/>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B145" s="147"/>
-      <c r="C145" s="147"/>
-      <c r="D145" s="147"/>
-      <c r="E145" s="147"/>
-      <c r="F145" s="147"/>
-      <c r="G145" s="147"/>
-      <c r="H145" s="147"/>
-      <c r="I145" s="147"/>
-      <c r="J145" s="147"/>
-      <c r="K145" s="147"/>
-      <c r="L145" s="147"/>
-      <c r="M145" s="147"/>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B146" s="147"/>
-      <c r="C146" s="147"/>
-      <c r="D146" s="147"/>
-      <c r="E146" s="147"/>
-      <c r="F146" s="147"/>
-      <c r="G146" s="147"/>
-      <c r="H146" s="147"/>
-      <c r="I146" s="147"/>
-      <c r="J146" s="147"/>
-      <c r="K146" s="147"/>
-      <c r="L146" s="147"/>
-      <c r="M146" s="147"/>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B147" s="147"/>
-      <c r="C147" s="147"/>
-      <c r="D147" s="147"/>
-      <c r="E147" s="147"/>
-      <c r="F147" s="147"/>
-      <c r="G147" s="147"/>
-      <c r="H147" s="147"/>
-      <c r="I147" s="147"/>
-      <c r="J147" s="147"/>
-      <c r="K147" s="147"/>
-      <c r="L147" s="147"/>
-      <c r="M147" s="147"/>
-    </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B148" s="147"/>
-      <c r="C148" s="147"/>
-      <c r="D148" s="147"/>
-      <c r="E148" s="147"/>
-      <c r="F148" s="147"/>
-      <c r="G148" s="147"/>
-      <c r="H148" s="147"/>
-      <c r="I148" s="147"/>
-      <c r="J148" s="147"/>
-      <c r="K148" s="147"/>
-      <c r="L148" s="147"/>
-      <c r="M148" s="147"/>
-    </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B149" s="147"/>
-      <c r="C149" s="147"/>
-      <c r="D149" s="147"/>
-      <c r="E149" s="147"/>
-      <c r="F149" s="147"/>
-      <c r="G149" s="147"/>
-      <c r="H149" s="147"/>
-      <c r="I149" s="147"/>
-      <c r="J149" s="147"/>
-      <c r="K149" s="147"/>
-      <c r="L149" s="147"/>
-      <c r="M149" s="147"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B152" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="C152" s="133"/>
+      <c r="D152" s="133"/>
+      <c r="E152" s="133"/>
+      <c r="F152" s="133"/>
+      <c r="G152" s="133"/>
+      <c r="H152" s="133"/>
+      <c r="I152" s="133"/>
+      <c r="J152" s="133"/>
+      <c r="K152" s="133"/>
+      <c r="L152" s="133"/>
+      <c r="M152" s="133"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B153" s="133"/>
+      <c r="C153" s="133"/>
+      <c r="D153" s="133"/>
+      <c r="E153" s="133"/>
+      <c r="F153" s="133"/>
+      <c r="G153" s="133"/>
+      <c r="H153" s="133"/>
+      <c r="I153" s="133"/>
+      <c r="J153" s="133"/>
+      <c r="K153" s="133"/>
+      <c r="L153" s="133"/>
+      <c r="M153" s="133"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B154" s="133"/>
+      <c r="C154" s="133"/>
+      <c r="D154" s="133"/>
+      <c r="E154" s="133"/>
+      <c r="F154" s="133"/>
+      <c r="G154" s="133"/>
+      <c r="H154" s="133"/>
+      <c r="I154" s="133"/>
+      <c r="J154" s="133"/>
+      <c r="K154" s="133"/>
+      <c r="L154" s="133"/>
+      <c r="M154" s="133"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B155" s="133"/>
+      <c r="C155" s="133"/>
+      <c r="D155" s="133"/>
+      <c r="E155" s="133"/>
+      <c r="F155" s="133"/>
+      <c r="G155" s="133"/>
+      <c r="H155" s="133"/>
+      <c r="I155" s="133"/>
+      <c r="J155" s="133"/>
+      <c r="K155" s="133"/>
+      <c r="L155" s="133"/>
+      <c r="M155" s="133"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B156" s="133"/>
+      <c r="C156" s="133"/>
+      <c r="D156" s="133"/>
+      <c r="E156" s="133"/>
+      <c r="F156" s="133"/>
+      <c r="G156" s="133"/>
+      <c r="H156" s="133"/>
+      <c r="I156" s="133"/>
+      <c r="J156" s="133"/>
+      <c r="K156" s="133"/>
+      <c r="L156" s="133"/>
+      <c r="M156" s="133"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B157" s="133"/>
+      <c r="C157" s="133"/>
+      <c r="D157" s="133"/>
+      <c r="E157" s="133"/>
+      <c r="F157" s="133"/>
+      <c r="G157" s="133"/>
+      <c r="H157" s="133"/>
+      <c r="I157" s="133"/>
+      <c r="J157" s="133"/>
+      <c r="K157" s="133"/>
+      <c r="L157" s="133"/>
+      <c r="M157" s="133"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B144:M149"/>
+  <mergeCells count="42">
+    <mergeCell ref="B109:M110"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="B115:M120"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="B46:M47"/>
+    <mergeCell ref="B49:M50"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="M55:N56"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="B152:M157"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="G67:H67"/>
     <mergeCell ref="G68:H68"/>
     <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
     <mergeCell ref="H79:I79"/>
     <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="B135:M140"/>
-    <mergeCell ref="B107:M112"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="B46:M47"/>
-    <mergeCell ref="B49:M50"/>
-    <mergeCell ref="M55:N55"/>
     <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="B143:M148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
